--- a/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
+++ b/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19368" windowHeight="9588" tabRatio="961" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19365" windowHeight="9525" tabRatio="961" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Papers and Reports" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
     <sheet name="CAPEX_Euros_BSG" sheetId="17" r:id="rId18"/>
     <sheet name="CAPEX_Euros_Phillipson" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -42,7 +37,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -5345,9 +5340,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5378,6 +5373,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5497,7 +5493,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5613,22 +5609,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C49-4DD5-A120-89BC345C596F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAPEX_Euros_BSG!$J$1</c:f>
+              <c:f>CAPEX_Euros_Rokkas!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Cost in Euros(BSG)</c:v>
+                  <c:v>Total Cost in Euros(Rokkas)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5683,68 +5679,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX_Euros_BSG!$J$2:$J$14</c:f>
+              <c:f>CAPEX_Euros_Rokkas!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>39154337.007425129</c:v>
+                  <c:v>24888699.883375917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24445057.803101256</c:v>
+                  <c:v>9882499.8833759166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21659918.969783098</c:v>
+                  <c:v>7907692.4290527506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22522618.969783098</c:v>
+                  <c:v>15633092.42905275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32640037.803101253</c:v>
+                  <c:v>16205899.883375917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44120457.007425137</c:v>
+                  <c:v>25777299.883375917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25097617.803101256</c:v>
+                  <c:v>10205599.883375917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22472418.969783098</c:v>
+                  <c:v>8557692.4290527496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27100080.481793776</c:v>
+                  <c:v>23928162.54905314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22927963.137474932</c:v>
+                  <c:v>9319523.9473406393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31064688.937474929</c:v>
+                  <c:v>16871123.947340641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29651580.481793776</c:v>
+                  <c:v>16690462.549053138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24127963.137474932</c:v>
+                  <c:v>10121123.947340639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
+              <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAPEX_Euros_Rokkas!$J$1</c:f>
+              <c:f>CAPEX_Euros_BSG!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Cost in Euros(Rokkas)</c:v>
+                  <c:v>Total Cost in Euros(BSG)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5799,55 +5795,55 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX_Euros_Rokkas!$J$2:$J$14</c:f>
+              <c:f>CAPEX_Euros_BSG!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>24888699.883375917</c:v>
+                  <c:v>39154337.007425129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9882499.8833759166</c:v>
+                  <c:v>24445057.803101256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7907692.4290527506</c:v>
+                  <c:v>21659918.969783098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15633092.42905275</c:v>
+                  <c:v>22522618.969783098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16205899.883375917</c:v>
+                  <c:v>32640037.803101253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25777299.883375917</c:v>
+                  <c:v>44120457.007425137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10205599.883375917</c:v>
+                  <c:v>25097617.803101256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8557692.4290527496</c:v>
+                  <c:v>22472418.969783098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23928162.54905314</c:v>
+                  <c:v>27100080.481793776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9319523.9473406393</c:v>
+                  <c:v>22927963.137474932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16871123.947340641</c:v>
+                  <c:v>31064688.937474929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16690462.549053138</c:v>
+                  <c:v>29651580.481793776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10121123.947340639</c:v>
+                  <c:v>24127963.137474932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
+              <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5860,11 +5856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210933248"/>
-        <c:axId val="215217792"/>
+        <c:axId val="63184384"/>
+        <c:axId val="63051968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210933248"/>
+        <c:axId val="63184384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215217792"/>
+        <c:crossAx val="63051968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5882,7 +5878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215217792"/>
+        <c:axId val="63051968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5907,13 +5903,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210933248"/>
+        <c:crossAx val="63184384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5935,6 +5932,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5950,9 +5948,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5968,6 +5966,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6094,7 +6093,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6210,7 +6209,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6326,7 +6325,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6442,7 +6441,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6558,7 +6557,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6574,12 +6573,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="189379584"/>
-        <c:axId val="191418304"/>
+        <c:axId val="63694848"/>
+        <c:axId val="134015232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="189379584"/>
+        <c:axId val="63694848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6589,7 +6588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191418304"/>
+        <c:crossAx val="134015232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6597,7 +6596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191418304"/>
+        <c:axId val="134015232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,7 +6607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189379584"/>
+        <c:crossAx val="63694848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6634,9 +6633,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6787,7 +6786,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -6903,7 +6902,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -6918,11 +6917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189380608"/>
-        <c:axId val="191420608"/>
+        <c:axId val="63696384"/>
+        <c:axId val="134017536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189380608"/>
+        <c:axId val="63696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +6934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191420608"/>
+        <c:crossAx val="134017536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6943,7 +6942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191420608"/>
+        <c:axId val="134017536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6961,7 +6960,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6969,7 +6968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189380608"/>
+        <c:crossAx val="63696384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6997,9 +6996,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7144,7 +7143,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7260,7 +7259,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7277,11 +7276,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189382144"/>
-        <c:axId val="194437120"/>
+        <c:axId val="162845184"/>
+        <c:axId val="134019840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189382144"/>
+        <c:axId val="162845184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7315,7 +7314,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194437120"/>
+        <c:crossAx val="134019840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7323,7 +7322,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194437120"/>
+        <c:axId val="134019840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7354,7 +7353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189382144"/>
+        <c:crossAx val="162845184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7380,9 +7379,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7510,7 +7509,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7626,7 +7625,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7742,7 +7741,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7757,11 +7756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195975680"/>
-        <c:axId val="194439424"/>
+        <c:axId val="162847232"/>
+        <c:axId val="165560896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195975680"/>
+        <c:axId val="162847232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7771,7 +7770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194439424"/>
+        <c:crossAx val="165560896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7779,7 +7778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194439424"/>
+        <c:axId val="165560896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7792,7 +7791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195975680"/>
+        <c:crossAx val="162847232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -7820,9 +7819,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7838,6 +7837,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7964,7 +7964,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8080,7 +8080,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8196,7 +8196,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8312,7 +8312,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8428,7 +8428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8444,12 +8444,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="194535424"/>
-        <c:axId val="194441728"/>
+        <c:axId val="139620352"/>
+        <c:axId val="165563200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="194535424"/>
+        <c:axId val="139620352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,7 +8459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194441728"/>
+        <c:crossAx val="165563200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8467,7 +8467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194441728"/>
+        <c:axId val="165563200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8478,7 +8478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194535424"/>
+        <c:crossAx val="139620352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8504,9 +8504,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8633,7 +8633,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8749,7 +8749,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8865,7 +8865,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8882,11 +8882,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194536960"/>
-        <c:axId val="194444032"/>
+        <c:axId val="139621888"/>
+        <c:axId val="165565504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194536960"/>
+        <c:axId val="139621888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,7 +8899,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194444032"/>
+        <c:crossAx val="165565504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8907,7 +8907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194444032"/>
+        <c:axId val="165565504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8938,7 +8938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194536960"/>
+        <c:crossAx val="139621888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8964,9 +8964,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8997,6 +8997,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9116,7 +9117,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9232,7 +9233,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84DA-40A5-B657-50F1A006A948}"/>
             </c:ext>
@@ -9348,7 +9349,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9464,7 +9465,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9479,11 +9480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201022464"/>
-        <c:axId val="214111296"/>
+        <c:axId val="163072000"/>
+        <c:axId val="165567808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201022464"/>
+        <c:axId val="163072000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9493,7 +9494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214111296"/>
+        <c:crossAx val="165567808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9501,7 +9502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214111296"/>
+        <c:axId val="165567808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9526,25 +9527,29 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201022464"/>
+        <c:crossAx val="163072000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9560,9 +9565,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9713,7 +9718,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -9829,7 +9834,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -9945,7 +9950,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10061,7 +10066,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10177,7 +10182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10193,11 +10198,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="201019904"/>
-        <c:axId val="216058112"/>
+        <c:axId val="163073536"/>
+        <c:axId val="139814592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201019904"/>
+        <c:axId val="163073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10207,7 +10212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216058112"/>
+        <c:crossAx val="139814592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10215,7 +10220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216058112"/>
+        <c:axId val="139814592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10244,7 +10249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201019904"/>
+        <c:crossAx val="163073536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10270,9 +10275,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10316,6 +10321,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10434,7 +10440,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10550,7 +10556,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10666,7 +10672,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10782,7 +10788,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D70-40DC-A7E6-49F3B48EDA52}"/>
             </c:ext>
@@ -10799,24 +10805,25 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198646784"/>
-        <c:axId val="216060992"/>
+        <c:axId val="167110144"/>
+        <c:axId val="139817472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198646784"/>
+        <c:axId val="167110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216060992"/>
+        <c:crossAx val="139817472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10824,7 +10831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216060992"/>
+        <c:axId val="139817472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -10848,23 +10855,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198646784"/>
+        <c:crossAx val="167110144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10880,9 +10891,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11043,7 +11054,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11159,7 +11170,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11275,7 +11286,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11391,7 +11402,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11507,7 +11518,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11523,11 +11534,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="201776640"/>
-        <c:axId val="216056960"/>
+        <c:axId val="64044544"/>
+        <c:axId val="62775296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201776640"/>
+        <c:axId val="64044544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11537,7 +11548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216056960"/>
+        <c:crossAx val="62775296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11545,7 +11556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216056960"/>
+        <c:axId val="62775296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11574,7 +11585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201776640"/>
+        <c:crossAx val="64044544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11600,9 +11611,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11646,6 +11657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11767,7 +11779,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -11886,7 +11898,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12005,7 +12017,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12124,7 +12136,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB9D-43BE-841C-7F46FEAD708A}"/>
             </c:ext>
@@ -12139,25 +12151,27 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231190528"/>
-        <c:axId val="233318080"/>
+        <c:axId val="102507520"/>
+        <c:axId val="62778176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231190528"/>
+        <c:axId val="102507520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233318080"/>
+        <c:crossAx val="62778176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12165,7 +12179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233318080"/>
+        <c:axId val="62778176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -12189,19 +12203,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231190528"/>
+        <c:crossAx val="102507520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12217,9 +12233,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12251,6 +12267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12380,7 +12397,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12496,7 +12513,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12612,7 +12629,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12728,7 +12745,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12844,7 +12861,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12860,11 +12877,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="235833344"/>
-        <c:axId val="214228992"/>
+        <c:axId val="102508544"/>
+        <c:axId val="62779904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235833344"/>
+        <c:axId val="102508544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12874,7 +12891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214228992"/>
+        <c:crossAx val="62779904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12882,7 +12899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214228992"/>
+        <c:axId val="62779904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12893,17 +12910,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235833344"/>
+        <c:crossAx val="102508544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12919,9 +12939,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12953,6 +12973,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13072,7 +13093,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13188,7 +13209,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13304,7 +13325,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13420,7 +13441,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13536,7 +13557,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13552,11 +13573,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="235831808"/>
-        <c:axId val="233319232"/>
+        <c:axId val="102510080"/>
+        <c:axId val="62782208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235831808"/>
+        <c:axId val="102510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13566,7 +13587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233319232"/>
+        <c:crossAx val="62782208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13574,7 +13595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233319232"/>
+        <c:axId val="62782208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13585,17 +13606,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235831808"/>
+        <c:crossAx val="102510080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13611,9 +13635,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13764,7 +13788,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -13880,7 +13904,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -13996,7 +14020,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14112,7 +14136,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14228,7 +14252,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14244,11 +14268,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="231191552"/>
-        <c:axId val="287875648"/>
+        <c:axId val="129984000"/>
+        <c:axId val="130614400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231191552"/>
+        <c:axId val="129984000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14258,7 +14282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287875648"/>
+        <c:crossAx val="130614400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14266,7 +14290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287875648"/>
+        <c:axId val="130614400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14277,7 +14301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231191552"/>
+        <c:crossAx val="129984000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -14303,9 +14327,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14317,6 +14341,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14342,7 +14367,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14363,11 +14388,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="502363904"/>
-        <c:axId val="502360296"/>
+        <c:axId val="129985536"/>
+        <c:axId val="130616704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="502363904"/>
+        <c:axId val="129985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14406,10 +14431,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502360296"/>
+        <c:crossAx val="130616704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14417,7 +14442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502360296"/>
+        <c:axId val="130616704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14465,10 +14490,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502363904"/>
+        <c:crossAx val="129985536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14506,7 +14531,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14518,9 +14543,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14658,7 +14683,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -14774,7 +14799,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -14890,7 +14915,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15006,7 +15031,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15122,7 +15147,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15138,11 +15163,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="191987200"/>
-        <c:axId val="191370304"/>
+        <c:axId val="162609664"/>
+        <c:axId val="133985344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191987200"/>
+        <c:axId val="162609664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15152,7 +15177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191370304"/>
+        <c:crossAx val="133985344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15160,7 +15185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191370304"/>
+        <c:axId val="133985344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15171,17 +15196,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191987200"/>
+        <c:crossAx val="162609664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15197,9 +15225,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15211,6 +15239,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15329,7 +15358,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
             </c:ext>
@@ -15343,11 +15372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191372608"/>
-        <c:axId val="191414272"/>
+        <c:axId val="133987648"/>
+        <c:axId val="134012928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191372608"/>
+        <c:axId val="133987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15356,12 +15385,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191414272"/>
+        <c:crossAx val="134012928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191414272"/>
+        <c:axId val="134012928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15372,13 +15401,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191372608"/>
+        <c:crossAx val="133987648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15956,7 +15986,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15994,7 +16024,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16032,7 +16062,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16070,7 +16100,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16108,7 +16138,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16146,7 +16176,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16184,7 +16214,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16225,7 +16255,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16261,7 +16291,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16302,7 +16332,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16340,7 +16370,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16378,7 +16408,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16421,7 +16451,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16459,7 +16489,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16497,7 +16527,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16540,7 +16570,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16578,7 +16608,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16616,7 +16646,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17168,7 +17198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17201,26 +17231,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17253,23 +17266,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17452,19 +17448,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17490,7 +17486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -17516,7 +17512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -17542,7 +17538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -17570,12 +17566,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -17592,7 +17588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="177.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="195.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
@@ -17609,7 +17605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="88.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="88.9" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>104</v>
       </c>
@@ -17626,7 +17622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="111" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>117</v>
       </c>
@@ -17660,19 +17656,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -17707,7 +17703,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -17746,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -17787,7 +17783,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -17827,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -17867,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -17907,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -17946,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -17987,7 +17983,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -18026,7 +18022,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -18067,7 +18063,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
@@ -18084,7 +18080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -18171,7 +18167,7 @@
         <v>107500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18188,19 +18184,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18235,7 +18231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -18274,7 +18270,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -18314,7 +18310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -18354,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -18393,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -18433,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -18473,7 +18469,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -18515,7 +18511,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -18555,7 +18551,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -18594,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -18612,7 +18608,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -18697,7 +18693,7 @@
         <v>163650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18714,19 +18710,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18761,7 +18757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -18800,7 +18796,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -18839,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -18879,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -18918,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -18958,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -18997,7 +18993,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -19038,7 +19034,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -19077,7 +19073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -19095,7 +19091,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -19183,7 +19179,7 @@
         <v>96500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19200,19 +19196,19 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19247,7 +19243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19286,7 +19282,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19325,7 +19321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19365,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19404,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19444,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19483,7 +19479,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -19526,7 +19522,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -19565,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -19583,7 +19579,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -19671,7 +19667,7 @@
         <v>221850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19688,20 +19684,20 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="19"/>
-    <col min="10" max="10" width="22.33203125" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="22.28515625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19736,7 +19732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19775,7 +19771,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19815,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19855,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19894,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19934,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19974,7 +19970,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -20016,7 +20012,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -20056,7 +20052,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -20095,7 +20091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -20112,7 +20108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -20196,7 +20192,7 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20213,21 +20209,21 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="19"/>
-    <col min="9" max="9" width="20.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="20.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -20262,7 +20258,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -20301,7 +20297,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -20340,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -20380,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -20419,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -20459,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -20498,7 +20494,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -20539,7 +20535,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -20578,7 +20574,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -20595,7 +20591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -20682,7 +20678,7 @@
         <v>86850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20695,27 +20691,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -20750,7 +20746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -20791,7 +20787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -20832,7 +20828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -20873,7 +20869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -20914,7 +20910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -20955,7 +20951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -20996,7 +20992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -21035,7 +21031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -21076,7 +21072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>70</v>
       </c>
@@ -21117,7 +21113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>71</v>
       </c>
@@ -21158,7 +21154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
@@ -21199,7 +21195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -21240,7 +21236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>74</v>
       </c>
@@ -21281,7 +21277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C56" s="22" t="s">
         <v>1</v>
       </c>
@@ -21295,14 +21291,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C57">
+        <f>B3</f>
         <v>146337.9</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="24">
+        <f t="shared" ref="D57:E57" si="5">C3</f>
         <v>18.840229999999998</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="24">
+        <f t="shared" si="5"/>
         <v>3056.8888888888887</v>
       </c>
       <c r="F57">
@@ -21310,183 +21309,219 @@
         <v>158553.60000000001</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58">
+    <row r="58" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C58" s="24">
+        <f t="shared" ref="C58:E58" si="6">B4</f>
         <v>146337.9</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="24">
+        <f t="shared" si="6"/>
         <v>12.814590000000001</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="24">
+        <f t="shared" si="6"/>
         <v>6405.333333333333</v>
       </c>
       <c r="F58" s="21">
-        <f t="shared" ref="F58:F69" si="5">E4+F4</f>
+        <f t="shared" ref="F58:F69" si="7">E4+F4</f>
         <v>63750.8</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="24">
+        <f t="shared" ref="C59:E59" si="8">B5</f>
         <v>78872.09</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="24">
+        <f t="shared" si="8"/>
         <v>14.612120000000001</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="24">
+        <f t="shared" si="8"/>
         <v>5299.166666666667</v>
       </c>
       <c r="F59" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60860</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C60">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="24">
+        <f t="shared" ref="C60:E60" si="9">B6</f>
         <v>78872.09</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="24">
+        <f t="shared" si="9"/>
         <v>14.612120000000001</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="24">
+        <f t="shared" si="9"/>
         <v>5866.833333333333</v>
       </c>
       <c r="F60" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>133338.59999999998</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C61">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="24">
+        <f t="shared" ref="C61:E61" si="10">B7</f>
         <v>146337.9</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="24">
+        <f t="shared" si="10"/>
         <v>12.814590000000001</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="24">
+        <f t="shared" si="10"/>
         <v>12618.666666666666</v>
       </c>
       <c r="F61" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>129280.20000000001</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C62">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="24">
+        <f t="shared" ref="C62:E62" si="11">B8</f>
         <v>146337.9</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="24">
+        <f t="shared" si="11"/>
         <v>18.840229999999998</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="24">
+        <f t="shared" si="11"/>
         <v>6426.666666666667</v>
       </c>
       <c r="F62" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>195086.4</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C63">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="24">
+        <f t="shared" ref="C63:E63" si="12">B9</f>
         <v>146337.9</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="24">
+        <f t="shared" si="12"/>
         <v>12.814590000000001</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="24">
+        <f t="shared" si="12"/>
         <v>12818.666666666666</v>
       </c>
       <c r="F63" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>61989.9</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C64">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="24">
+        <f t="shared" ref="C64:E64" si="13">B10</f>
         <v>78872.09</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="24">
+        <f t="shared" si="13"/>
         <v>14.612120000000001</v>
       </c>
-      <c r="E64">
-        <v>5866.833333333333</v>
+      <c r="E64" s="24">
+        <f t="shared" si="13"/>
+        <v>11216.333333333334</v>
       </c>
       <c r="F64" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>63060</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C65">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="24">
+        <f t="shared" ref="C65:E65" si="14">B11</f>
         <v>114876.4</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="24">
+        <f t="shared" si="14"/>
         <v>12.59423</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="24">
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="F65" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>96145</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C66">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="24">
+        <f t="shared" ref="C66:E66" si="15">B12</f>
         <v>115530.5</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="24">
+        <f t="shared" si="15"/>
         <v>12.21167</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="24">
+        <f t="shared" si="15"/>
         <v>7280</v>
       </c>
       <c r="F66" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>55966.5</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C67">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="24">
+        <f t="shared" ref="C67:E67" si="16">B13</f>
         <v>115530.5</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="24">
+        <f t="shared" si="16"/>
         <v>25.08727</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="24">
+        <f t="shared" si="16"/>
         <v>14160</v>
       </c>
       <c r="F67" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>168466.5</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C68">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="24">
+        <f t="shared" ref="C68:E68" si="17">B14</f>
         <v>114876.4</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="24">
+        <f t="shared" si="17"/>
         <v>12.59423</v>
       </c>
-      <c r="E68">
-        <v>14800</v>
+      <c r="E68" s="24">
+        <f t="shared" si="17"/>
+        <v>27600</v>
       </c>
       <c r="F68" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>105356</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C69">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="24">
+        <f t="shared" ref="C69:E69" si="18">B15</f>
         <v>115530.5</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="24">
+        <f t="shared" si="18"/>
         <v>12.21167</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="24">
+        <f t="shared" si="18"/>
         <v>14160</v>
       </c>
       <c r="F69" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>66966.5</v>
       </c>
     </row>
@@ -21507,19 +21542,19 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="3" width="45" style="21" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22295,18 +22330,18 @@
       <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -23001,20 +23036,20 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -23708,11 +23743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23730,20 +23765,20 @@
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -23778,7 +23813,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -23820,7 +23855,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -23861,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -23901,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -23942,7 +23977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -23984,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -24025,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -24068,7 +24103,7 @@
         <v>12440</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -24111,7 +24146,7 @@
         <v>273680</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -24150,7 +24185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -24160,7 +24195,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -24177,7 +24212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -24262,8 +24297,8 @@
         <v>288120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>112</v>
       </c>
@@ -24294,20 +24329,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -24342,7 +24377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -24383,7 +24418,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -24423,7 +24458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -24463,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -24502,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -24543,7 +24578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -24582,7 +24617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -24622,7 +24657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -24663,7 +24698,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -24703,7 +24738,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -24714,7 +24749,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -24732,7 +24767,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -24820,7 +24855,7 @@
         <v>77970</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24838,18 +24873,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -24884,7 +24919,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -24923,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -24963,7 +24998,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -25002,7 +25037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -25041,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -25081,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -25120,7 +25155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25161,7 +25196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -25200,7 +25235,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -25241,7 +25276,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -25252,7 +25287,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -25270,7 +25305,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -25358,7 +25393,7 @@
         <v>78900</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25376,18 +25411,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="28" style="24" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -25422,7 +25457,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -25461,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -25501,7 +25536,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -25540,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -25579,7 +25614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -25619,7 +25654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -25658,7 +25693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25699,7 +25734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -25738,7 +25773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -25781,7 +25816,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -25789,7 +25824,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -25807,7 +25842,7 @@
       </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -25898,19 +25933,19 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J23" s="28"/>
     </row>
   </sheetData>
@@ -25929,18 +25964,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -25975,7 +26010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26016,7 +26051,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26056,7 +26091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26096,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26135,7 +26170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26175,7 +26210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26215,7 +26250,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26255,7 +26290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -26294,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -26337,7 +26372,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -26345,7 +26380,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -26362,7 +26397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -26449,7 +26484,7 @@
         <v>217188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -26466,19 +26501,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -26513,7 +26548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26554,7 +26589,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26595,7 +26630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26635,7 +26670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26676,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26718,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26759,7 +26794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26801,7 +26836,7 @@
         <v>24880</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -26840,7 +26875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -26883,7 +26918,7 @@
         <v>49760</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -26922,7 +26957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
@@ -26930,7 +26965,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -26938,7 +26973,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -26955,7 +26990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -27039,7 +27074,7 @@
         <v>77340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -27056,20 +27091,20 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -27104,7 +27139,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -27146,7 +27181,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -27186,7 +27221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -27226,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -27265,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -27306,7 +27341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -27346,7 +27381,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -27386,7 +27421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -27427,7 +27462,7 @@
         <v>48770</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -27467,7 +27502,7 @@
         <v>24385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
@@ -27484,7 +27519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -27571,7 +27606,7 @@
         <v>82215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
+++ b/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19365" windowHeight="9525" tabRatio="961" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19368" windowHeight="9468" tabRatio="961" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Papers and Reports" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <sheet name="CAPEX_Euros_BSG" sheetId="17" r:id="rId18"/>
     <sheet name="CAPEX_Euros_Phillipson" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -37,7 +42,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -5340,9 +5345,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5373,7 +5378,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5493,7 +5497,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5609,7 +5613,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C49-4DD5-A120-89BC345C596F}"/>
             </c:ext>
@@ -5725,7 +5729,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5841,7 +5845,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5856,11 +5860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63184384"/>
-        <c:axId val="63051968"/>
+        <c:axId val="107157504"/>
+        <c:axId val="49928960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63184384"/>
+        <c:axId val="107157504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5870,7 +5874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63051968"/>
+        <c:crossAx val="49928960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5878,7 +5882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63051968"/>
+        <c:axId val="49928960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5903,14 +5907,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63184384"/>
+        <c:crossAx val="107157504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5932,7 +5935,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5948,9 +5950,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5966,7 +5968,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6093,7 +6094,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6209,7 +6210,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6325,7 +6326,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6441,7 +6442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6557,7 +6558,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6573,12 +6574,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="63694848"/>
-        <c:axId val="134015232"/>
+        <c:axId val="181568000"/>
+        <c:axId val="164416896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63694848"/>
+        <c:axId val="181568000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,7 +6589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134015232"/>
+        <c:crossAx val="164416896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6596,7 +6597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134015232"/>
+        <c:axId val="164416896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6607,7 +6608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63694848"/>
+        <c:crossAx val="181568000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6633,9 +6634,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6786,7 +6787,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -6902,7 +6903,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -6917,11 +6918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63696384"/>
-        <c:axId val="134017536"/>
+        <c:axId val="181569024"/>
+        <c:axId val="164419200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63696384"/>
+        <c:axId val="181569024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6934,7 +6935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134017536"/>
+        <c:crossAx val="164419200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6942,7 +6943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134017536"/>
+        <c:axId val="164419200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6960,7 +6961,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6968,7 +6969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63696384"/>
+        <c:crossAx val="181569024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6996,9 +6997,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7143,7 +7144,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7259,7 +7260,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7276,11 +7277,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162845184"/>
-        <c:axId val="134019840"/>
+        <c:axId val="181570048"/>
+        <c:axId val="183902208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162845184"/>
+        <c:axId val="181570048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,7 +7315,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134019840"/>
+        <c:crossAx val="183902208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7322,7 +7323,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134019840"/>
+        <c:axId val="183902208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7353,7 +7354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162845184"/>
+        <c:crossAx val="181570048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7379,9 +7380,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7509,7 +7510,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7625,7 +7626,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7741,7 +7742,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7756,11 +7757,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162847232"/>
-        <c:axId val="165560896"/>
+        <c:axId val="185292288"/>
+        <c:axId val="183903936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162847232"/>
+        <c:axId val="185292288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7770,7 +7771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165560896"/>
+        <c:crossAx val="183903936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7778,7 +7779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165560896"/>
+        <c:axId val="183903936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7791,7 +7792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162847232"/>
+        <c:crossAx val="185292288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -7819,9 +7820,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7837,7 +7838,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7964,7 +7964,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8080,7 +8080,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8196,7 +8196,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8312,7 +8312,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8428,7 +8428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8444,12 +8444,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="139620352"/>
-        <c:axId val="165563200"/>
+        <c:axId val="185293312"/>
+        <c:axId val="183906240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="139620352"/>
+        <c:axId val="185293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,7 +8459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165563200"/>
+        <c:crossAx val="183906240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8467,7 +8467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165563200"/>
+        <c:axId val="183906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8478,7 +8478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139620352"/>
+        <c:crossAx val="185293312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8504,9 +8504,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8633,7 +8633,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8749,7 +8749,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8865,7 +8865,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8882,11 +8882,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139621888"/>
-        <c:axId val="165565504"/>
+        <c:axId val="185294336"/>
+        <c:axId val="183908544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139621888"/>
+        <c:axId val="185294336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,7 +8899,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165565504"/>
+        <c:crossAx val="183908544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8907,7 +8907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165565504"/>
+        <c:axId val="183908544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8938,7 +8938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139621888"/>
+        <c:crossAx val="185294336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8964,9 +8964,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8997,7 +8997,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9117,7 +9116,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9233,7 +9232,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84DA-40A5-B657-50F1A006A948}"/>
             </c:ext>
@@ -9349,7 +9348,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9465,7 +9464,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9480,11 +9479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163072000"/>
-        <c:axId val="165567808"/>
+        <c:axId val="186880512"/>
+        <c:axId val="185098816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163072000"/>
+        <c:axId val="186880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9494,7 +9493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165567808"/>
+        <c:crossAx val="185098816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9502,7 +9501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165567808"/>
+        <c:axId val="185098816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9527,29 +9526,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163072000"/>
+        <c:crossAx val="186880512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9565,9 +9560,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9718,7 +9713,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -9834,7 +9829,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -9950,7 +9945,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10066,7 +10061,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10182,7 +10177,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10198,11 +10193,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="163073536"/>
-        <c:axId val="139814592"/>
+        <c:axId val="186882048"/>
+        <c:axId val="185101120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163073536"/>
+        <c:axId val="186882048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10212,7 +10207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139814592"/>
+        <c:crossAx val="185101120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10220,7 +10215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139814592"/>
+        <c:axId val="185101120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10249,7 +10244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163073536"/>
+        <c:crossAx val="186882048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10275,9 +10270,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10321,7 +10316,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10440,7 +10434,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10556,7 +10550,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10672,7 +10666,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10788,7 +10782,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D70-40DC-A7E6-49F3B48EDA52}"/>
             </c:ext>
@@ -10805,25 +10799,24 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167110144"/>
-        <c:axId val="139817472"/>
+        <c:axId val="187228160"/>
+        <c:axId val="185104000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167110144"/>
+        <c:axId val="187228160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139817472"/>
+        <c:crossAx val="185104000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10831,7 +10824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139817472"/>
+        <c:axId val="185104000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -10855,27 +10848,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167110144"/>
+        <c:crossAx val="187228160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10891,9 +10880,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11054,7 +11043,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11170,7 +11159,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11286,7 +11275,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11402,7 +11391,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11518,7 +11507,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11534,11 +11523,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="64044544"/>
-        <c:axId val="62775296"/>
+        <c:axId val="133457408"/>
+        <c:axId val="50521216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64044544"/>
+        <c:axId val="133457408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11548,7 +11537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62775296"/>
+        <c:crossAx val="50521216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11556,7 +11545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62775296"/>
+        <c:axId val="50521216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11585,7 +11574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64044544"/>
+        <c:crossAx val="133457408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11611,9 +11600,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11657,7 +11646,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11779,7 +11767,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -11898,7 +11886,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12017,7 +12005,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12136,7 +12124,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB9D-43BE-841C-7F46FEAD708A}"/>
             </c:ext>
@@ -12151,27 +12139,25 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102507520"/>
-        <c:axId val="62778176"/>
+        <c:axId val="133459456"/>
+        <c:axId val="50524096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102507520"/>
+        <c:axId val="133459456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62778176"/>
+        <c:crossAx val="50524096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12179,7 +12165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62778176"/>
+        <c:axId val="50524096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -12203,21 +12189,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102507520"/>
+        <c:crossAx val="133459456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12233,9 +12217,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12267,7 +12251,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12397,7 +12380,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12513,7 +12496,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12629,7 +12612,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12745,7 +12728,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12861,7 +12844,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12877,11 +12860,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="102508544"/>
-        <c:axId val="62779904"/>
+        <c:axId val="162735104"/>
+        <c:axId val="50525824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102508544"/>
+        <c:axId val="162735104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12891,7 +12874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62779904"/>
+        <c:crossAx val="50525824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12899,7 +12882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62779904"/>
+        <c:axId val="50525824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12910,20 +12893,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102508544"/>
+        <c:crossAx val="162735104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12939,9 +12919,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12973,7 +12953,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13093,7 +13072,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13209,7 +13188,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13325,7 +13304,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13441,7 +13420,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13557,7 +13536,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13573,11 +13552,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="102510080"/>
-        <c:axId val="62782208"/>
+        <c:axId val="162736128"/>
+        <c:axId val="162791424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102510080"/>
+        <c:axId val="162736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13587,7 +13566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62782208"/>
+        <c:crossAx val="162791424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13595,7 +13574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62782208"/>
+        <c:axId val="162791424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13606,20 +13585,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102510080"/>
+        <c:crossAx val="162736128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13635,9 +13611,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13788,7 +13764,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -13904,7 +13880,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14020,7 +13996,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14136,7 +14112,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14252,7 +14228,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14268,11 +14244,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="129984000"/>
-        <c:axId val="130614400"/>
+        <c:axId val="162737664"/>
+        <c:axId val="162793728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129984000"/>
+        <c:axId val="162737664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14282,7 +14258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130614400"/>
+        <c:crossAx val="162793728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14290,7 +14266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130614400"/>
+        <c:axId val="162793728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14301,7 +14277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129984000"/>
+        <c:crossAx val="162737664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -14327,9 +14303,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14341,7 +14317,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14367,7 +14342,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14388,11 +14363,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="129985536"/>
-        <c:axId val="130616704"/>
+        <c:axId val="164652544"/>
+        <c:axId val="162796032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129985536"/>
+        <c:axId val="164652544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14431,10 +14406,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130616704"/>
+        <c:crossAx val="162796032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14442,7 +14417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130616704"/>
+        <c:axId val="162796032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14490,10 +14465,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129985536"/>
+        <c:crossAx val="164652544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14531,7 +14506,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14543,9 +14518,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14683,7 +14658,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -14799,7 +14774,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -14915,7 +14890,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15031,7 +15006,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15147,7 +15122,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15163,11 +15138,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="162609664"/>
-        <c:axId val="133985344"/>
+        <c:axId val="165012480"/>
+        <c:axId val="164395200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162609664"/>
+        <c:axId val="165012480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15177,7 +15152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133985344"/>
+        <c:crossAx val="164395200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15185,7 +15160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133985344"/>
+        <c:axId val="164395200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15196,20 +15171,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162609664"/>
+        <c:crossAx val="165012480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15225,9 +15197,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15239,7 +15211,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15358,7 +15329,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
             </c:ext>
@@ -15372,11 +15343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133987648"/>
-        <c:axId val="134012928"/>
+        <c:axId val="164414016"/>
+        <c:axId val="164414592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133987648"/>
+        <c:axId val="164414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15385,12 +15356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134012928"/>
+        <c:crossAx val="164414592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134012928"/>
+        <c:axId val="164414592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15401,14 +15372,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133987648"/>
+        <c:crossAx val="164414016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15986,7 +15956,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16024,7 +15994,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16062,7 +16032,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16100,7 +16070,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16138,7 +16108,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16176,7 +16146,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16214,7 +16184,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16255,7 +16225,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16291,7 +16261,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16332,7 +16302,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16370,7 +16340,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16408,7 +16378,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16451,7 +16421,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16489,7 +16459,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16527,7 +16497,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16570,7 +16540,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16608,7 +16578,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16646,7 +16616,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17198,7 +17168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17231,9 +17201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17266,6 +17253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17448,19 +17452,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17486,7 +17490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -17512,7 +17516,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -17538,7 +17542,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -17566,12 +17570,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -17588,7 +17592,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="195.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="177.6" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
@@ -17605,7 +17609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="88.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="88.8" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>104</v>
       </c>
@@ -17622,7 +17626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="111" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>117</v>
       </c>
@@ -17653,22 +17657,22 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -17703,7 +17707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -17742,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -17783,7 +17787,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -17823,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -17863,7 +17867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -17903,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -17942,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -17983,7 +17987,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -18022,7 +18026,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -18063,7 +18067,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
@@ -18080,7 +18084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -18167,7 +18171,7 @@
         <v>107500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18181,22 +18185,22 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18231,7 +18235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -18270,7 +18274,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -18310,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -18350,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -18389,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -18429,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -18469,7 +18473,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -18511,7 +18515,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -18551,7 +18555,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -18590,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -18608,7 +18612,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -18693,7 +18697,7 @@
         <v>163650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -18707,22 +18711,22 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18757,7 +18761,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -18796,7 +18800,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -18875,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -18914,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -18954,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -18993,7 +18997,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -19034,7 +19038,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -19073,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -19091,7 +19095,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -19179,7 +19183,7 @@
         <v>96500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19193,22 +19197,22 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19243,7 +19247,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19282,7 +19286,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19321,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19361,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19400,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19440,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19479,7 +19483,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -19522,7 +19526,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -19561,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -19579,7 +19583,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -19667,7 +19671,7 @@
         <v>221850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19681,23 +19685,23 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="19"/>
-    <col min="10" max="10" width="22.28515625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="19"/>
+    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="19"/>
+    <col min="10" max="10" width="22.33203125" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19732,7 +19736,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19771,7 +19775,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19811,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19851,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19890,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19930,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19970,7 +19974,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -20012,7 +20016,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -20052,7 +20056,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -20091,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -20108,7 +20112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -20192,7 +20196,7 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20205,25 +20209,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="19"/>
-    <col min="9" max="9" width="20.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="19"/>
+    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="19"/>
+    <col min="9" max="9" width="20.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -20258,7 +20262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -20297,7 +20301,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -20336,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -20376,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -20415,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -20455,7 +20459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -20494,7 +20498,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -20535,7 +20539,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -20574,7 +20578,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -20591,7 +20595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -20678,7 +20682,7 @@
         <v>86850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20691,27 +20695,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="1" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -20746,7 +20750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -20787,7 +20791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -20828,7 +20832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -20869,7 +20873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -20910,7 +20914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -20951,7 +20955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -20992,7 +20996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -21031,7 +21035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -21072,7 +21076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>70</v>
       </c>
@@ -21113,7 +21117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>71</v>
       </c>
@@ -21154,7 +21158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
@@ -21195,7 +21199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -21236,7 +21240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>74</v>
       </c>
@@ -21277,7 +21281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="22" t="s">
         <v>1</v>
       </c>
@@ -21291,7 +21295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>B3</f>
         <v>146337.9</v>
@@ -21309,7 +21313,7 @@
         <v>158553.60000000001</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="24">
         <f t="shared" ref="C58:E58" si="6">B4</f>
         <v>146337.9</v>
@@ -21327,7 +21331,7 @@
         <v>63750.8</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C59" s="24">
         <f t="shared" ref="C59:E59" si="8">B5</f>
         <v>78872.09</v>
@@ -21345,7 +21349,7 @@
         <v>60860</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="24">
         <f t="shared" ref="C60:E60" si="9">B6</f>
         <v>78872.09</v>
@@ -21363,7 +21367,7 @@
         <v>133338.59999999998</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="24">
         <f t="shared" ref="C61:E61" si="10">B7</f>
         <v>146337.9</v>
@@ -21381,7 +21385,7 @@
         <v>129280.20000000001</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="24">
         <f t="shared" ref="C62:E62" si="11">B8</f>
         <v>146337.9</v>
@@ -21399,7 +21403,7 @@
         <v>195086.4</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="24">
         <f t="shared" ref="C63:E63" si="12">B9</f>
         <v>146337.9</v>
@@ -21417,7 +21421,7 @@
         <v>61989.9</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" s="24">
         <f t="shared" ref="C64:E64" si="13">B10</f>
         <v>78872.09</v>
@@ -21435,7 +21439,7 @@
         <v>63060</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" s="24">
         <f t="shared" ref="C65:E65" si="14">B11</f>
         <v>114876.4</v>
@@ -21453,7 +21457,7 @@
         <v>96145</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" s="24">
         <f t="shared" ref="C66:E66" si="15">B12</f>
         <v>115530.5</v>
@@ -21471,7 +21475,7 @@
         <v>55966.5</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" s="24">
         <f t="shared" ref="C67:E67" si="16">B13</f>
         <v>115530.5</v>
@@ -21489,7 +21493,7 @@
         <v>168466.5</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C68" s="24">
         <f t="shared" ref="C68:E68" si="17">B14</f>
         <v>114876.4</v>
@@ -21507,7 +21511,7 @@
         <v>105356</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C69" s="24">
         <f t="shared" ref="C69:E69" si="18">B15</f>
         <v>115530.5</v>
@@ -21542,19 +21546,19 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="3" width="45" style="21" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22330,18 +22334,18 @@
       <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -23035,21 +23039,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -23743,11 +23747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23762,23 +23766,23 @@
       <pane xSplit="4" ySplit="16" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -23813,7 +23817,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -23855,7 +23859,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -23896,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -23936,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -23977,7 +23981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -24019,7 +24023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -24060,7 +24064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -24103,7 +24107,7 @@
         <v>12440</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -24146,7 +24150,7 @@
         <v>273680</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -24185,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -24195,7 +24199,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -24212,7 +24216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -24297,8 +24301,8 @@
         <v>288120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>112</v>
       </c>
@@ -24326,23 +24330,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -24377,7 +24381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -24418,7 +24422,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -24458,7 +24462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -24498,7 +24502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -24537,7 +24541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -24578,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -24617,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -24657,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -24698,7 +24702,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -24738,7 +24742,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -24749,7 +24753,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -24767,7 +24771,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -24855,7 +24859,7 @@
         <v>77970</v>
       </c>
     </row>
-    <row r="21" spans="1:7" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24869,22 +24873,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -24919,7 +24923,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -24958,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -24998,7 +25002,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -25037,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -25076,7 +25080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -25116,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -25155,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25196,7 +25200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -25235,7 +25239,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -25276,7 +25280,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -25287,7 +25291,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -25305,7 +25309,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -25393,7 +25397,7 @@
         <v>78900</v>
       </c>
     </row>
-    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25407,22 +25411,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="28" style="24" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -25457,7 +25461,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -25496,7 +25500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -25536,7 +25540,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -25575,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -25614,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -25654,7 +25658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -25693,7 +25697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25734,7 +25738,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -25773,7 +25777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -25816,7 +25820,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -25824,7 +25828,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -25842,7 +25846,7 @@
       </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -25933,19 +25937,19 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J23" s="28"/>
     </row>
   </sheetData>
@@ -25961,21 +25965,21 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -26010,7 +26014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26051,7 +26055,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26091,7 +26095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26131,7 +26135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26170,7 +26174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26210,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26250,7 +26254,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26290,7 +26294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -26329,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -26372,7 +26376,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -26380,7 +26384,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -26397,7 +26401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -26484,7 +26488,7 @@
         <v>217188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -26497,23 +26501,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -26548,7 +26552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26589,7 +26593,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26630,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26670,7 +26674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26711,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26753,7 +26757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26794,7 +26798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26836,7 +26840,7 @@
         <v>24880</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -26875,7 +26879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -26918,7 +26922,7 @@
         <v>49760</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -26957,7 +26961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
@@ -26965,7 +26969,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -26973,7 +26977,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -26990,7 +26994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -27074,7 +27078,7 @@
         <v>77340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -27088,23 +27092,23 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -27139,7 +27143,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -27181,7 +27185,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -27221,7 +27225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -27261,7 +27265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -27300,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -27341,7 +27345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -27381,7 +27385,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -27421,7 +27425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -27462,7 +27466,7 @@
         <v>48770</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -27502,7 +27506,7 @@
         <v>24385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
@@ -27519,7 +27523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -27606,7 +27610,7 @@
         <v>82215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
+++ b/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19368" windowHeight="9468" tabRatio="961" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19365" windowHeight="9405" tabRatio="961" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Papers and Reports" sheetId="1" r:id="rId1"/>
@@ -32,6 +27,9 @@
     <sheet name="CAPEX_Euros_BSG" sheetId="17" r:id="rId18"/>
     <sheet name="CAPEX_Euros_Phillipson" sheetId="19" r:id="rId19"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId20"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -42,7 +40,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -5345,7 +5343,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5378,6 +5376,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5497,7 +5496,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5613,7 +5612,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C49-4DD5-A120-89BC345C596F}"/>
             </c:ext>
@@ -5729,7 +5728,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5845,7 +5844,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5860,11 +5859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107157504"/>
-        <c:axId val="49928960"/>
+        <c:axId val="199296896"/>
+        <c:axId val="199298432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107157504"/>
+        <c:axId val="199296896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49928960"/>
+        <c:crossAx val="199298432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5882,7 +5881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49928960"/>
+        <c:axId val="199298432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5907,13 +5906,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107157504"/>
+        <c:crossAx val="199296896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5935,6 +5935,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5950,7 +5951,204 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_OASE!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost per Home passed(OASE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>CAPEX_Euros_OASE!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CAPEX_Euros_OASE!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>526.22382119965971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>369.94540346410588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.8399781058483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372.65418538263503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>492.53226241655852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>594.40538393935253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377.89501957601436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261.70978650354272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>367.42873732144079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305.49725184539676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>509.50394243387331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>423.49291611988247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>336.04882043264303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="201608192"/>
+        <c:axId val="201609984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="201608192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201609984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="201609984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201608192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5968,6 +6166,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6094,7 +6293,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6210,7 +6409,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6326,7 +6525,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6442,7 +6641,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6558,7 +6757,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6574,12 +6773,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="181568000"/>
-        <c:axId val="164416896"/>
+        <c:axId val="201042560"/>
+        <c:axId val="201060736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="181568000"/>
+        <c:axId val="201042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6589,7 +6788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164416896"/>
+        <c:crossAx val="201060736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6597,7 +6796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164416896"/>
+        <c:axId val="201060736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,7 +6807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181568000"/>
+        <c:crossAx val="201042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6633,8 +6832,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6787,7 +6986,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -6903,7 +7102,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -6918,11 +7117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181569024"/>
-        <c:axId val="164419200"/>
+        <c:axId val="201082752"/>
+        <c:axId val="201097216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181569024"/>
+        <c:axId val="201082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +7134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164419200"/>
+        <c:crossAx val="201097216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6943,7 +7142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164419200"/>
+        <c:axId val="201097216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6969,7 +7168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181569024"/>
+        <c:crossAx val="201082752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6996,8 +7195,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7144,7 +7343,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7260,7 +7459,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7277,11 +7476,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181570048"/>
-        <c:axId val="183902208"/>
+        <c:axId val="201202304"/>
+        <c:axId val="201204480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181570048"/>
+        <c:axId val="201202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7315,7 +7514,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183902208"/>
+        <c:crossAx val="201204480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7323,7 +7522,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183902208"/>
+        <c:axId val="201204480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7354,7 +7553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181570048"/>
+        <c:crossAx val="201202304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7379,8 +7578,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7510,7 +7709,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7626,7 +7825,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7742,7 +7941,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7757,11 +7956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185292288"/>
-        <c:axId val="183903936"/>
+        <c:axId val="201459200"/>
+        <c:axId val="201460736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185292288"/>
+        <c:axId val="201459200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7771,7 +7970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183903936"/>
+        <c:crossAx val="201460736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7779,7 +7978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183903936"/>
+        <c:axId val="201460736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7792,7 +7991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185292288"/>
+        <c:crossAx val="201459200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -7819,8 +8018,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7838,6 +8037,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7964,7 +8164,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8080,7 +8280,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8196,7 +8396,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8312,7 +8512,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8428,7 +8628,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8444,12 +8644,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="185293312"/>
-        <c:axId val="183906240"/>
+        <c:axId val="201495296"/>
+        <c:axId val="201496832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="185293312"/>
+        <c:axId val="201495296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,7 +8659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183906240"/>
+        <c:crossAx val="201496832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8467,7 +8667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183906240"/>
+        <c:axId val="201496832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8478,7 +8678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185293312"/>
+        <c:crossAx val="201495296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8503,8 +8703,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8633,7 +8833,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8749,7 +8949,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8865,7 +9065,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8882,11 +9082,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185294336"/>
-        <c:axId val="183908544"/>
+        <c:axId val="201550080"/>
+        <c:axId val="201552256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185294336"/>
+        <c:axId val="201550080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,7 +9099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183908544"/>
+        <c:crossAx val="201552256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8907,7 +9107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183908544"/>
+        <c:axId val="201552256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8938,7 +9138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185294336"/>
+        <c:crossAx val="201550080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8963,8 +9163,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9116,7 +9316,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9232,7 +9432,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84DA-40A5-B657-50F1A006A948}"/>
             </c:ext>
@@ -9348,7 +9548,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9464,7 +9664,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9479,11 +9679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186880512"/>
-        <c:axId val="185098816"/>
+        <c:axId val="200681344"/>
+        <c:axId val="200682880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186880512"/>
+        <c:axId val="200681344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9493,7 +9693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185098816"/>
+        <c:crossAx val="200682880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9501,7 +9701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185098816"/>
+        <c:axId val="200682880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9532,7 +9732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186880512"/>
+        <c:crossAx val="200681344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -9559,8 +9759,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9713,7 +9913,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -9829,7 +10029,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -9945,7 +10145,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10061,7 +10261,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10177,7 +10377,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10193,11 +10393,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="186882048"/>
-        <c:axId val="185101120"/>
+        <c:axId val="200726016"/>
+        <c:axId val="200727552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186882048"/>
+        <c:axId val="200726016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10207,7 +10407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185101120"/>
+        <c:crossAx val="200727552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10215,7 +10415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185101120"/>
+        <c:axId val="200727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10244,7 +10444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186882048"/>
+        <c:crossAx val="200726016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10269,8 +10469,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10434,7 +10634,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10550,7 +10750,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10666,7 +10866,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -10782,7 +10982,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D70-40DC-A7E6-49F3B48EDA52}"/>
             </c:ext>
@@ -10799,11 +10999,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187228160"/>
-        <c:axId val="185104000"/>
+        <c:axId val="201904128"/>
+        <c:axId val="201906048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187228160"/>
+        <c:axId val="201904128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10816,7 +11016,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185104000"/>
+        <c:crossAx val="201906048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10824,7 +11024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185104000"/>
+        <c:axId val="201906048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -10854,7 +11054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187228160"/>
+        <c:crossAx val="201904128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10880,7 +11080,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10914,6 +11114,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11043,7 +11244,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11159,7 +11360,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11275,7 +11476,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11391,7 +11592,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11507,7 +11708,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11523,11 +11724,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="133457408"/>
-        <c:axId val="50521216"/>
+        <c:axId val="199353856"/>
+        <c:axId val="199355392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133457408"/>
+        <c:axId val="199353856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11537,7 +11738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50521216"/>
+        <c:crossAx val="199355392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11545,7 +11746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50521216"/>
+        <c:axId val="199355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11568,23 +11769,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133457408"/>
+        <c:crossAx val="199353856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11600,7 +11805,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11646,6 +11851,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11767,7 +11973,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -11886,7 +12092,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12005,7 +12211,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12124,7 +12330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB9D-43BE-841C-7F46FEAD708A}"/>
             </c:ext>
@@ -12139,25 +12345,27 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133459456"/>
-        <c:axId val="50524096"/>
+        <c:axId val="199733632"/>
+        <c:axId val="199735552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133459456"/>
+        <c:axId val="199733632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50524096"/>
+        <c:crossAx val="199735552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12165,7 +12373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50524096"/>
+        <c:axId val="199735552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -12189,19 +12397,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133459456"/>
+        <c:crossAx val="199733632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12217,7 +12427,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12251,6 +12461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12380,7 +12591,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12496,7 +12707,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12612,7 +12823,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12728,7 +12939,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12844,7 +13055,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12860,11 +13071,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="162735104"/>
-        <c:axId val="50525824"/>
+        <c:axId val="199795072"/>
+        <c:axId val="199796608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162735104"/>
+        <c:axId val="199795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12874,7 +13085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50525824"/>
+        <c:crossAx val="199796608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12882,7 +13093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50525824"/>
+        <c:axId val="199796608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12893,17 +13104,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162735104"/>
+        <c:crossAx val="199795072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12919,7 +13133,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12953,6 +13167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13072,7 +13287,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13188,7 +13403,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13304,7 +13519,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13420,7 +13635,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13536,7 +13751,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13552,11 +13767,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="162736128"/>
-        <c:axId val="162791424"/>
+        <c:axId val="199910912"/>
+        <c:axId val="199912448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162736128"/>
+        <c:axId val="199910912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13566,7 +13781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162791424"/>
+        <c:crossAx val="199912448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13574,7 +13789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162791424"/>
+        <c:axId val="199912448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13585,17 +13800,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162736128"/>
+        <c:crossAx val="199910912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13611,7 +13829,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13645,6 +13863,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13764,7 +13983,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -13880,7 +14099,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -13996,7 +14215,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14112,7 +14331,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14228,7 +14447,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14244,11 +14463,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="162737664"/>
-        <c:axId val="162793728"/>
+        <c:axId val="199953408"/>
+        <c:axId val="199963392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162737664"/>
+        <c:axId val="199953408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14258,7 +14477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162793728"/>
+        <c:crossAx val="199963392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14266,7 +14485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162793728"/>
+        <c:axId val="199963392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14277,17 +14496,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162737664"/>
+        <c:crossAx val="199953408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14303,7 +14525,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14317,6 +14539,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14363,11 +14586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="164652544"/>
-        <c:axId val="162796032"/>
+        <c:axId val="200003968"/>
+        <c:axId val="200005504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164652544"/>
+        <c:axId val="200003968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14409,7 +14632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162796032"/>
+        <c:crossAx val="200005504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14417,7 +14640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162796032"/>
+        <c:axId val="200005504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14468,7 +14691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164652544"/>
+        <c:crossAx val="200003968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14518,7 +14741,936 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]OPEX!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_DWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]OPEX!$E$28:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16202.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8480</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20377.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B4F1-49F6-83ED-2665C470D7F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]OPEX!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_DWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]OPEX!$E$29:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3900.4488391680002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15518.532579840001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14871.900355200003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3279.3529536000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2489.7663590400002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11115.468565056002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15946.915080960001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14972.561164800003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7232.9508432000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15199.111584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>378.22176000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9256.7074175999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15372.01296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B4F1-49F6-83ED-2665C470D7F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]OPEX!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fault Maintenance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_DWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]OPEX!$E$30:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6008.5530527698265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20434.095716784002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20766.619334565716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2263.0546533337124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2233.9824704598395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21331.706543720222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20730.355811899841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20767.268450565716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10209.666758157182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20585.774219759998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980.898713392548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12704.99861850918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20869.841433392543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B4F1-49F6-83ED-2665C470D7F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]OPEX!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_DWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]OPEX!$E$31:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>860.85009459689138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1951.3314148312002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1975.3759844882859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470.57038034668568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>532.98744147499201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2276.0587554388112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2130.6635446429923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2152.6914807682861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1682.2708800678593</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001.2442901880002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>541.95602366962737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2116.9453018054592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2236.0927196696271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B4F1-49F6-83ED-2665C470D7F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]OPEX!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTC_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_DWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTC_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_DWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]OPEX!$E$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1205.1901324356479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2731.8639807636805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2765.5263782836005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>658.79853248536006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746.18241806498884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3186.482257614336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2982.9289625001893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3013.7680730756006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2355.179232095003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2801.7420062632004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758.73843313747841</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2963.7234225276429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3130.5298075374781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B4F1-49F6-83ED-2665C470D7F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="202916608"/>
+        <c:axId val="203246208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="202916608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Technology</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203246208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="203246208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost Units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202916608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14658,7 +15810,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -14774,7 +15926,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -14890,7 +16042,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15006,7 +16158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15122,7 +16274,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15138,11 +16290,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="165012480"/>
-        <c:axId val="164395200"/>
+        <c:axId val="201303168"/>
+        <c:axId val="201304704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165012480"/>
+        <c:axId val="201303168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15152,7 +16304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164395200"/>
+        <c:crossAx val="201304704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15160,7 +16312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164395200"/>
+        <c:axId val="201304704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15171,210 +16323,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165012480"/>
+        <c:crossAx val="201303168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl/>
         </c:dispUnits>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost per Home passed(OASE)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$A$3:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CAPEX_Euros_OASE!$J$3:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>526.22382119965971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>369.94540346410588</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>247.8399781058483</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>372.65418538263503</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>492.53226241655852</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>594.40538393935253</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>377.89501957601436</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>261.70978650354272</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>367.42873732144079</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>305.49725184539676</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>509.50394243387331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>423.49291611988247</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>336.04882043264303</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="164414016"/>
-        <c:axId val="164414592"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="164414016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164414592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="164414592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164414016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -15956,7 +16911,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15994,7 +16949,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16032,7 +16987,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16070,7 +17025,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16108,7 +17063,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16146,7 +17101,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16184,7 +17139,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16197,6 +17152,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313781</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16225,7 +17218,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16261,7 +17254,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16302,7 +17295,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16340,7 +17333,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16378,7 +17371,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16421,7 +17414,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16459,7 +17452,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16497,7 +17490,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16540,7 +17533,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16578,7 +17571,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16616,7 +17609,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16637,6 +17630,309 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FTTC_GPON_25_PIVOT"/>
+      <sheetName val="FTTC_GPON_25"/>
+      <sheetName val="FTTB_XGPON_50"/>
+      <sheetName val="FTTB_DWDM_50"/>
+      <sheetName val="FTTH_DWDM_100"/>
+      <sheetName val="FTTH_XGPON_100"/>
+      <sheetName val="FTTC_GPON_100"/>
+      <sheetName val="FTTB_XGPON_100"/>
+      <sheetName val="FTTB_DWDM_100"/>
+      <sheetName val="FTTC_Hybridpon_25"/>
+      <sheetName val="FTTB_Hybridpon_50"/>
+      <sheetName val="FTTH_Hybridpon_100"/>
+      <sheetName val="FTTC_Hybridpon_100"/>
+      <sheetName val="FTTB_Hybridpon_100"/>
+      <sheetName val="OPEX"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>FTTC_GPON_25</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>FTTB_XGPON_50</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>FTTB_DWDM_50</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>FTTH_DWDM_100</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>FTTH_XGPON_100</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>FTTC_GPON_100</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>FTTB_XGPON_100</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>FTTB_DWDM_100</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>FTTC_Hybridpon_25</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>FTTB_Hybridpon_50</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>FTTH_Hybridpon_100</v>
+          </cell>
+          <cell r="P27" t="str">
+            <v>FTTC_Hybridpon_100</v>
+          </cell>
+          <cell r="Q27" t="str">
+            <v>FTTB_Hybridpon_100</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>Rent</v>
+          </cell>
+          <cell r="E28">
+            <v>7308</v>
+          </cell>
+          <cell r="F28">
+            <v>3074</v>
+          </cell>
+          <cell r="G28">
+            <v>3869</v>
+          </cell>
+          <cell r="H28">
+            <v>3869</v>
+          </cell>
+          <cell r="I28">
+            <v>5936</v>
+          </cell>
+          <cell r="J28">
+            <v>13074</v>
+          </cell>
+          <cell r="K28">
+            <v>5936</v>
+          </cell>
+          <cell r="L28">
+            <v>7314</v>
+          </cell>
+          <cell r="M28">
+            <v>16202.8</v>
+          </cell>
+          <cell r="N28">
+            <v>4240</v>
+          </cell>
+          <cell r="O28">
+            <v>8480</v>
+          </cell>
+          <cell r="P28">
+            <v>20377.2</v>
+          </cell>
+          <cell r="Q28">
+            <v>8480</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>Energy</v>
+          </cell>
+          <cell r="E29">
+            <v>3900.4488391680002</v>
+          </cell>
+          <cell r="F29">
+            <v>15518.532579840001</v>
+          </cell>
+          <cell r="G29">
+            <v>14871.900355200003</v>
+          </cell>
+          <cell r="H29">
+            <v>3279.3529536000001</v>
+          </cell>
+          <cell r="I29">
+            <v>2489.7663590400002</v>
+          </cell>
+          <cell r="J29">
+            <v>11115.468565056002</v>
+          </cell>
+          <cell r="K29">
+            <v>15946.915080960001</v>
+          </cell>
+          <cell r="L29">
+            <v>14972.561164800003</v>
+          </cell>
+          <cell r="M29">
+            <v>7232.9508432000002</v>
+          </cell>
+          <cell r="N29">
+            <v>15199.111584</v>
+          </cell>
+          <cell r="O29">
+            <v>378.22176000000002</v>
+          </cell>
+          <cell r="P29">
+            <v>9256.7074175999987</v>
+          </cell>
+          <cell r="Q29">
+            <v>15372.01296</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>Fault Maintenance</v>
+          </cell>
+          <cell r="E30">
+            <v>6008.5530527698265</v>
+          </cell>
+          <cell r="F30">
+            <v>20434.095716784002</v>
+          </cell>
+          <cell r="G30">
+            <v>20766.619334565716</v>
+          </cell>
+          <cell r="H30">
+            <v>2263.0546533337124</v>
+          </cell>
+          <cell r="I30">
+            <v>2233.9824704598395</v>
+          </cell>
+          <cell r="J30">
+            <v>21331.706543720222</v>
+          </cell>
+          <cell r="K30">
+            <v>20730.355811899841</v>
+          </cell>
+          <cell r="L30">
+            <v>20767.268450565716</v>
+          </cell>
+          <cell r="M30">
+            <v>10209.666758157182</v>
+          </cell>
+          <cell r="N30">
+            <v>20585.774219759998</v>
+          </cell>
+          <cell r="O30">
+            <v>1980.898713392548</v>
+          </cell>
+          <cell r="P30">
+            <v>12704.99861850918</v>
+          </cell>
+          <cell r="Q30">
+            <v>20869.841433392543</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>Marketing</v>
+          </cell>
+          <cell r="E31">
+            <v>860.85009459689138</v>
+          </cell>
+          <cell r="F31">
+            <v>1951.3314148312002</v>
+          </cell>
+          <cell r="G31">
+            <v>1975.3759844882859</v>
+          </cell>
+          <cell r="H31">
+            <v>470.57038034668568</v>
+          </cell>
+          <cell r="I31">
+            <v>532.98744147499201</v>
+          </cell>
+          <cell r="J31">
+            <v>2276.0587554388112</v>
+          </cell>
+          <cell r="K31">
+            <v>2130.6635446429923</v>
+          </cell>
+          <cell r="L31">
+            <v>2152.6914807682861</v>
+          </cell>
+          <cell r="M31">
+            <v>1682.2708800678593</v>
+          </cell>
+          <cell r="N31">
+            <v>2001.2442901880002</v>
+          </cell>
+          <cell r="O31">
+            <v>541.95602366962737</v>
+          </cell>
+          <cell r="P31">
+            <v>2116.9453018054592</v>
+          </cell>
+          <cell r="Q31">
+            <v>2236.0927196696271</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>Operations</v>
+          </cell>
+          <cell r="E32">
+            <v>1205.1901324356479</v>
+          </cell>
+          <cell r="F32">
+            <v>2731.8639807636805</v>
+          </cell>
+          <cell r="G32">
+            <v>2765.5263782836005</v>
+          </cell>
+          <cell r="H32">
+            <v>658.79853248536006</v>
+          </cell>
+          <cell r="I32">
+            <v>746.18241806498884</v>
+          </cell>
+          <cell r="J32">
+            <v>3186.482257614336</v>
+          </cell>
+          <cell r="K32">
+            <v>2982.9289625001893</v>
+          </cell>
+          <cell r="L32">
+            <v>3013.7680730756006</v>
+          </cell>
+          <cell r="M32">
+            <v>2355.179232095003</v>
+          </cell>
+          <cell r="N32">
+            <v>2801.7420062632004</v>
+          </cell>
+          <cell r="O32">
+            <v>758.73843313747841</v>
+          </cell>
+          <cell r="P32">
+            <v>2963.7234225276429</v>
+          </cell>
+          <cell r="Q32">
+            <v>3130.5298075374781</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17168,7 +18464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17201,26 +18497,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17253,23 +18532,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17452,19 +18714,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17490,7 +18752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -17516,7 +18778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -17542,7 +18804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -17570,12 +18832,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -17592,7 +18854,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="177.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="195.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
@@ -17609,7 +18871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="88.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>104</v>
       </c>
@@ -17626,7 +18888,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="111" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>117</v>
       </c>
@@ -17648,7 +18910,11 @@
     <hyperlink ref="E11" r:id="rId1" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=7347193"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17660,19 +18926,19 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -17707,7 +18973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -17746,7 +19012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -17787,7 +19053,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -17827,7 +19093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -17867,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -17907,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -17946,7 +19212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -17987,7 +19253,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -18026,7 +19292,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -18067,7 +19333,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
@@ -18084,7 +19350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -18106,7 +19372,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>86</v>
       </c>
@@ -18128,7 +19394,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>110</v>
       </c>
@@ -18150,7 +19416,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
@@ -18171,11 +19437,15 @@
         <v>107500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18188,19 +19458,19 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18235,7 +19505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -18274,7 +19544,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -18314,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -18354,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -18393,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -18433,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -18473,7 +19743,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -18515,7 +19785,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -18555,7 +19825,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -18594,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -18612,7 +19882,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -18635,7 +19905,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>86</v>
       </c>
@@ -18656,7 +19926,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>110</v>
       </c>
@@ -18677,7 +19947,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
@@ -18697,11 +19967,15 @@
         <v>163650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18714,19 +19988,19 @@
       <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18761,7 +20035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -18800,7 +20074,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -18839,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -18879,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -18918,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -18958,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -18997,7 +20271,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -19038,7 +20312,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -19077,7 +20351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -19095,7 +20369,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -19118,7 +20392,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>86</v>
       </c>
@@ -19140,7 +20414,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>110</v>
       </c>
@@ -19162,7 +20436,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
@@ -19183,11 +20457,15 @@
         <v>96500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -19200,19 +20478,19 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19247,7 +20525,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19286,7 +20564,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19325,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19365,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19404,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19444,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19483,7 +20761,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -19526,7 +20804,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -19565,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -19583,7 +20861,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -19606,7 +20884,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>86</v>
       </c>
@@ -19628,7 +20906,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>110</v>
       </c>
@@ -19650,7 +20928,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
@@ -19671,11 +20949,15 @@
         <v>221850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -19688,20 +20970,20 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="19"/>
-    <col min="10" max="10" width="22.33203125" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="22.28515625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19736,7 +21018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19775,7 +21057,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19815,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19855,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19894,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19934,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19974,7 +21256,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -20016,7 +21298,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -20056,7 +21338,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -20095,7 +21377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -20112,7 +21394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -20134,7 +21416,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>86</v>
       </c>
@@ -20155,7 +21437,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>110</v>
       </c>
@@ -20176,7 +21458,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
@@ -20196,11 +21478,15 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20209,25 +21495,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="19"/>
-    <col min="9" max="9" width="20.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="20.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -20262,7 +21548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -20301,7 +21587,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -20340,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -20380,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -20419,7 +21705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -20459,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -20498,7 +21784,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -20539,7 +21825,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -20578,7 +21864,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -20595,7 +21881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -20617,7 +21903,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>86</v>
       </c>
@@ -20639,7 +21925,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>110</v>
       </c>
@@ -20661,7 +21947,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
@@ -20682,11 +21968,15 @@
         <v>86850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20699,23 +21989,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -20750,7 +22040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -20791,7 +22081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -20832,7 +22122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -20873,7 +22163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -20914,7 +22204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -20955,7 +22245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -20996,7 +22286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -21035,7 +22325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -21076,7 +22366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>70</v>
       </c>
@@ -21117,7 +22407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>71</v>
       </c>
@@ -21158,7 +22448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
@@ -21199,7 +22489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -21240,7 +22530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>74</v>
       </c>
@@ -21281,7 +22571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="22" t="s">
         <v>1</v>
       </c>
@@ -21295,7 +22585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>B3</f>
         <v>146337.9</v>
@@ -21313,7 +22603,7 @@
         <v>158553.60000000001</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="24">
         <f t="shared" ref="C58:E58" si="6">B4</f>
         <v>146337.9</v>
@@ -21331,7 +22621,7 @@
         <v>63750.8</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="24">
         <f t="shared" ref="C59:E59" si="8">B5</f>
         <v>78872.09</v>
@@ -21349,7 +22639,7 @@
         <v>60860</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="24">
         <f t="shared" ref="C60:E60" si="9">B6</f>
         <v>78872.09</v>
@@ -21367,7 +22657,7 @@
         <v>133338.59999999998</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="24">
         <f t="shared" ref="C61:E61" si="10">B7</f>
         <v>146337.9</v>
@@ -21385,7 +22675,7 @@
         <v>129280.20000000001</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="24">
         <f t="shared" ref="C62:E62" si="11">B8</f>
         <v>146337.9</v>
@@ -21403,7 +22693,7 @@
         <v>195086.4</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="24">
         <f t="shared" ref="C63:E63" si="12">B9</f>
         <v>146337.9</v>
@@ -21421,7 +22711,7 @@
         <v>61989.9</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="24">
         <f t="shared" ref="C64:E64" si="13">B10</f>
         <v>78872.09</v>
@@ -21439,7 +22729,7 @@
         <v>63060</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="24">
         <f t="shared" ref="C65:E65" si="14">B11</f>
         <v>114876.4</v>
@@ -21457,7 +22747,7 @@
         <v>96145</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="24">
         <f t="shared" ref="C66:E66" si="15">B12</f>
         <v>115530.5</v>
@@ -21475,7 +22765,7 @@
         <v>55966.5</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="24">
         <f t="shared" ref="C67:E67" si="16">B13</f>
         <v>115530.5</v>
@@ -21493,7 +22783,7 @@
         <v>168466.5</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="24">
         <f t="shared" ref="C68:E68" si="17">B14</f>
         <v>114876.4</v>
@@ -21511,7 +22801,7 @@
         <v>105356</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="24">
         <f t="shared" ref="C69:E69" si="18">B15</f>
         <v>115530.5</v>
@@ -21531,9 +22821,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21546,23 +22840,23 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="3" width="45" style="21" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
@@ -21603,7 +22897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
@@ -21652,7 +22946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
@@ -21701,7 +22995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
@@ -21750,7 +23044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>53</v>
       </c>
@@ -21799,7 +23093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -21848,7 +23142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>67</v>
       </c>
@@ -21897,7 +23191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>68</v>
       </c>
@@ -21946,7 +23240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>69</v>
       </c>
@@ -21995,7 +23289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -22044,7 +23338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>71</v>
       </c>
@@ -22093,7 +23387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>72</v>
       </c>
@@ -22142,7 +23436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -22191,7 +23485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
@@ -22240,78 +23534,78 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="23"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="23"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -22319,9 +23613,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22334,21 +23632,21 @@
       <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
@@ -22389,7 +23687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
@@ -22438,7 +23736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
@@ -22487,7 +23785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>52</v>
       </c>
@@ -22536,7 +23834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>53</v>
       </c>
@@ -22585,7 +23883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -22634,7 +23932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
@@ -22683,7 +23981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
@@ -22732,7 +24030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>69</v>
       </c>
@@ -22781,7 +24079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -22830,7 +24128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>71</v>
       </c>
@@ -22879,7 +24177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>72</v>
       </c>
@@ -22928,7 +24226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -22977,7 +24275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
@@ -23028,9 +24326,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23043,20 +24345,20 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
@@ -23097,7 +24399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
@@ -23146,7 +24448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
@@ -23195,7 +24497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>52</v>
       </c>
@@ -23244,7 +24546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>53</v>
       </c>
@@ -23293,7 +24595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -23342,7 +24644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
@@ -23391,7 +24693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
@@ -23440,7 +24742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>69</v>
       </c>
@@ -23489,7 +24791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -23538,7 +24840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>71</v>
       </c>
@@ -23587,7 +24889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>72</v>
       </c>
@@ -23636,7 +24938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -23685,7 +24987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
@@ -23736,9 +25038,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23747,14 +25053,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23766,23 +25076,23 @@
       <pane xSplit="4" ySplit="16" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -23817,7 +25127,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -23859,7 +25169,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -23900,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -23940,7 +25250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -23981,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -24023,7 +25333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -24064,7 +25374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -24107,7 +25417,7 @@
         <v>12440</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -24150,7 +25460,7 @@
         <v>273680</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -24189,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -24199,7 +25509,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -24216,7 +25526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -24238,7 +25548,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -24259,7 +25569,7 @@
         <v>389592</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -24280,7 +25590,7 @@
         <v>381773.6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -24301,8 +25611,8 @@
         <v>288120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>112</v>
       </c>
@@ -24316,6 +25626,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="D4" calculatedColumn="1"/>
   </ignoredErrors>
@@ -24333,20 +25646,20 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -24381,7 +25694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -24422,7 +25735,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -24462,7 +25775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -24502,7 +25815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -24541,7 +25854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -24582,7 +25895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -24621,7 +25934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -24661,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -24702,7 +26015,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -24742,7 +26055,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -24753,7 +26066,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -24771,7 +26084,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -24794,7 +26107,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -24816,7 +26129,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -24838,7 +26151,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -24859,10 +26172,13 @@
         <v>77970</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -24877,18 +26193,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -24923,7 +26239,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -24962,7 +26278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -25002,7 +26318,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -25041,7 +26357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -25080,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -25120,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -25159,7 +26475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25200,7 +26516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -25239,7 +26555,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -25280,7 +26596,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -25291,7 +26607,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -25309,7 +26625,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -25332,7 +26648,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -25354,7 +26670,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -25376,7 +26692,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -25397,10 +26713,13 @@
         <v>78900</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -25415,18 +26734,18 @@
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="28" style="24" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -25461,7 +26780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -25500,7 +26819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -25540,7 +26859,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -25579,7 +26898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -25618,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -25658,7 +26977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -25697,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25738,7 +27057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -25777,7 +27096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -25820,7 +27139,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -25828,7 +27147,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -25846,7 +27165,7 @@
       </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -25869,7 +27188,7 @@
       <c r="F15" s="5"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -25892,7 +27211,7 @@
       <c r="F16" s="5"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -25915,7 +27234,7 @@
       <c r="F17" s="5"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -25937,25 +27256,29 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -25968,18 +27291,18 @@
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -26014,7 +27337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26055,7 +27378,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26095,7 +27418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26135,7 +27458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26174,7 +27497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26214,7 +27537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26254,7 +27577,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26294,7 +27617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -26333,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -26376,7 +27699,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -26384,7 +27707,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -26401,7 +27724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -26423,7 +27746,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -26445,7 +27768,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -26467,7 +27790,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -26488,11 +27811,15 @@
         <v>217188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26505,19 +27832,19 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -26552,7 +27879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26593,7 +27920,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26634,7 +27961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26674,7 +28001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26715,7 +28042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26757,7 +28084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26798,7 +28125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26840,7 +28167,7 @@
         <v>24880</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -26879,7 +28206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -26922,7 +28249,7 @@
         <v>49760</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -26961,7 +28288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
@@ -26969,7 +28296,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -26977,7 +28304,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -26994,7 +28321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -27016,7 +28343,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -27037,7 +28364,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -27058,7 +28385,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -27078,11 +28405,15 @@
         <v>77340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -27095,20 +28426,20 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -27143,7 +28474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -27185,7 +28516,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -27225,7 +28556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -27265,7 +28596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -27304,7 +28635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -27345,7 +28676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -27385,7 +28716,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -27425,7 +28756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -27466,7 +28797,7 @@
         <v>48770</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -27506,7 +28837,7 @@
         <v>24385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
@@ -27523,7 +28854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -27545,7 +28876,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>86</v>
       </c>
@@ -27567,7 +28898,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>110</v>
       </c>
@@ -27589,7 +28920,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
@@ -27610,11 +28941,15 @@
         <v>82215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
+++ b/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19368" windowHeight="9408" tabRatio="961" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19365" windowHeight="9405" tabRatio="961" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Papers and Reports" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
   <externalReferences>
     <externalReference r:id="rId20"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -45,7 +40,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="131">
   <si>
     <t>Paper</t>
   </si>
@@ -524,7 +519,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -660,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -727,6 +722,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -737,7 +743,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -779,6 +785,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -5351,9 +5358,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5503,7 +5510,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5619,7 +5626,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C49-4DD5-A120-89BC345C596F}"/>
             </c:ext>
@@ -5735,7 +5742,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5851,7 +5858,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -5866,11 +5873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61127168"/>
-        <c:axId val="72210624"/>
+        <c:axId val="61327872"/>
+        <c:axId val="61741248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61127168"/>
+        <c:axId val="61327872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,7 +5887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72210624"/>
+        <c:crossAx val="61741248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5888,7 +5895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72210624"/>
+        <c:axId val="61741248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5919,7 +5926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61127168"/>
+        <c:crossAx val="61327872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5956,9 +5963,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6088,7 +6095,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
             </c:ext>
@@ -6102,11 +6109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61875904"/>
-        <c:axId val="61876480"/>
+        <c:axId val="62465728"/>
+        <c:axId val="62466304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61875904"/>
+        <c:axId val="62465728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6115,12 +6122,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61876480"/>
+        <c:crossAx val="62466304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61876480"/>
+        <c:axId val="62466304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +6138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61875904"/>
+        <c:crossAx val="62465728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6153,9 +6160,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6171,6 +6178,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6297,7 +6305,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6413,7 +6421,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6529,7 +6537,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6645,7 +6653,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6761,7 +6769,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -6777,12 +6785,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="124461568"/>
-        <c:axId val="61878784"/>
+        <c:axId val="164241920"/>
+        <c:axId val="62468608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="124461568"/>
+        <c:axId val="164241920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6792,7 +6800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61878784"/>
+        <c:crossAx val="62468608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6800,7 +6808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61878784"/>
+        <c:axId val="62468608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6811,7 +6819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124461568"/>
+        <c:crossAx val="164241920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6837,9 +6845,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6990,7 +6998,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -7106,7 +7114,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B930-48EB-B477-A25076BE2822}"/>
             </c:ext>
@@ -7121,11 +7129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124463104"/>
-        <c:axId val="61881088"/>
+        <c:axId val="164243456"/>
+        <c:axId val="62470912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124463104"/>
+        <c:axId val="164243456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7138,7 +7146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61881088"/>
+        <c:crossAx val="62470912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7146,7 +7154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61881088"/>
+        <c:axId val="62470912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7164,7 +7172,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7172,7 +7180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124463104"/>
+        <c:crossAx val="164243456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -7200,9 +7208,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7347,7 +7355,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7463,7 +7471,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2F3B-4392-AF6C-AC9EEE9F44F5}"/>
             </c:ext>
@@ -7480,11 +7488,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124432384"/>
-        <c:axId val="124290176"/>
+        <c:axId val="164212736"/>
+        <c:axId val="164070528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124432384"/>
+        <c:axId val="164212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7518,7 +7526,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124290176"/>
+        <c:crossAx val="164070528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7526,7 +7534,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124290176"/>
+        <c:axId val="164070528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -7556,7 +7564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124432384"/>
+        <c:crossAx val="164212736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7581,9 +7589,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7711,7 +7719,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7827,7 +7835,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7943,7 +7951,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -7958,11 +7966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124434432"/>
-        <c:axId val="124291904"/>
+        <c:axId val="164214784"/>
+        <c:axId val="164072256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124434432"/>
+        <c:axId val="164214784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,7 +7980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124291904"/>
+        <c:crossAx val="164072256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7980,7 +7988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124291904"/>
+        <c:axId val="164072256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7993,19 +8001,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124434432"/>
+        <c:crossAx val="164214784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8021,9 +8032,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8039,6 +8050,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -8165,7 +8177,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8281,7 +8293,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8397,7 +8409,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8513,7 +8525,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8629,7 +8641,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -8645,12 +8657,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="124435456"/>
-        <c:axId val="124294208"/>
+        <c:axId val="164215808"/>
+        <c:axId val="164074560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="124435456"/>
+        <c:axId val="164215808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8660,7 +8672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124294208"/>
+        <c:crossAx val="164074560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8668,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124294208"/>
+        <c:axId val="164074560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8679,17 +8691,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124435456"/>
+        <c:crossAx val="164215808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8705,9 +8720,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8834,7 +8849,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -8950,7 +8965,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -9066,7 +9081,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -9083,24 +9098,25 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127827968"/>
-        <c:axId val="124296512"/>
+        <c:axId val="166174720"/>
+        <c:axId val="164076864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127827968"/>
+        <c:axId val="166174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124296512"/>
+        <c:crossAx val="164076864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9108,7 +9124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124296512"/>
+        <c:axId val="164076864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9133,23 +9149,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127827968"/>
+        <c:crossAx val="166174720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9165,9 +9185,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9198,6 +9218,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9317,7 +9338,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9433,7 +9454,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84DA-40A5-B657-50F1A006A948}"/>
             </c:ext>
@@ -9549,7 +9570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9665,7 +9686,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
             </c:ext>
@@ -9680,11 +9701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127830528"/>
-        <c:axId val="125806272"/>
+        <c:axId val="166177280"/>
+        <c:axId val="165717696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127830528"/>
+        <c:axId val="166177280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,7 +9715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125806272"/>
+        <c:crossAx val="165717696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9702,7 +9723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125806272"/>
+        <c:axId val="165717696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9727,25 +9748,29 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127830528"/>
+        <c:crossAx val="166177280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9761,9 +9786,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9795,6 +9820,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9914,7 +9940,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10030,7 +10056,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10146,7 +10172,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10262,7 +10288,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10378,7 +10404,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -10394,11 +10420,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="126070784"/>
-        <c:axId val="125808576"/>
+        <c:axId val="165982208"/>
+        <c:axId val="165720000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126070784"/>
+        <c:axId val="165982208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10408,7 +10434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125808576"/>
+        <c:crossAx val="165720000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10416,7 +10442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125808576"/>
+        <c:axId val="165720000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10439,23 +10465,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126070784"/>
+        <c:crossAx val="165982208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10471,9 +10501,9 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10517,6 +10547,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10630,7 +10661,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-582B-4785-AF4D-5C7C7FE221A9}"/>
             </c:ext>
@@ -10741,7 +10772,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-582B-4785-AF4D-5C7C7FE221A9}"/>
             </c:ext>
@@ -10852,7 +10883,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-582B-4785-AF4D-5C7C7FE221A9}"/>
             </c:ext>
@@ -10963,7 +10994,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-582B-4785-AF4D-5C7C7FE221A9}"/>
             </c:ext>
@@ -10978,25 +11009,27 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126072832"/>
-        <c:axId val="125811456"/>
+        <c:axId val="165984256"/>
+        <c:axId val="165722880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126072832"/>
+        <c:axId val="165984256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125811456"/>
+        <c:crossAx val="165722880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11004,7 +11037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125811456"/>
+        <c:axId val="165722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -11028,23 +11061,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126072832"/>
+        <c:crossAx val="165984256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11060,9 +11097,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11223,7 +11260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11339,7 +11376,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11455,7 +11492,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11571,7 +11608,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11687,7 +11724,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -11703,11 +11740,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61601792"/>
-        <c:axId val="61202432"/>
+        <c:axId val="61470720"/>
+        <c:axId val="61923328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61601792"/>
+        <c:axId val="61470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11717,7 +11754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61202432"/>
+        <c:crossAx val="61923328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11725,7 +11762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61202432"/>
+        <c:axId val="61923328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11754,7 +11791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61601792"/>
+        <c:crossAx val="61470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11780,9 +11817,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11947,7 +11984,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12066,7 +12103,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12185,7 +12222,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
             </c:ext>
@@ -12304,7 +12341,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB9D-43BE-841C-7F46FEAD708A}"/>
             </c:ext>
@@ -12319,12 +12356,13 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61603328"/>
-        <c:axId val="61205312"/>
+        <c:axId val="61472256"/>
+        <c:axId val="61926208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61603328"/>
+        <c:axId val="61472256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12337,7 +12375,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61205312"/>
+        <c:crossAx val="61926208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12345,7 +12383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61205312"/>
+        <c:axId val="61926208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -12375,7 +12413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61603328"/>
+        <c:crossAx val="61472256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12397,9 +12435,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12560,7 +12598,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12676,7 +12714,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12792,7 +12830,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -12908,7 +12946,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -13024,7 +13062,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -13040,11 +13078,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62629376"/>
-        <c:axId val="61207040"/>
+        <c:axId val="65451520"/>
+        <c:axId val="61927936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62629376"/>
+        <c:axId val="65451520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13054,7 +13092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61207040"/>
+        <c:crossAx val="61927936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13062,7 +13100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61207040"/>
+        <c:axId val="61927936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13073,7 +13111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62629376"/>
+        <c:crossAx val="65451520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13099,9 +13137,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13252,7 +13290,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13368,7 +13406,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13484,7 +13522,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13600,7 +13638,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13716,7 +13754,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E37-4F2C-B3FB-155963218EC0}"/>
             </c:ext>
@@ -13732,11 +13770,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62630912"/>
-        <c:axId val="61209344"/>
+        <c:axId val="65453056"/>
+        <c:axId val="61930240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62630912"/>
+        <c:axId val="65453056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13746,7 +13784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61209344"/>
+        <c:crossAx val="61930240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13754,7 +13792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61209344"/>
+        <c:axId val="61930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13765,7 +13803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62630912"/>
+        <c:crossAx val="65453056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13791,9 +13829,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13944,7 +13982,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14060,7 +14098,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14176,7 +14214,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14292,7 +14330,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14408,7 +14446,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
@@ -14424,11 +14462,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62828544"/>
-        <c:axId val="62719104"/>
+        <c:axId val="133603328"/>
+        <c:axId val="133497984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62828544"/>
+        <c:axId val="133603328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14438,7 +14476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62719104"/>
+        <c:crossAx val="133497984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14446,7 +14484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62719104"/>
+        <c:axId val="133497984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14457,7 +14495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62828544"/>
+        <c:crossAx val="133603328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -14483,9 +14521,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14522,7 +14560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14543,11 +14581,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="62830080"/>
-        <c:axId val="62721408"/>
+        <c:axId val="133604864"/>
+        <c:axId val="133500288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62830080"/>
+        <c:axId val="133604864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14586,10 +14624,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62721408"/>
+        <c:crossAx val="133500288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14597,7 +14635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62721408"/>
+        <c:axId val="133500288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14645,10 +14683,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62830080"/>
+        <c:crossAx val="133604864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14686,7 +14724,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14698,9 +14736,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14837,7 +14875,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -14962,7 +15000,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -15087,7 +15125,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -15212,7 +15250,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -15337,7 +15375,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -15353,11 +15391,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="62831104"/>
-        <c:axId val="62723136"/>
+        <c:axId val="133605888"/>
+        <c:axId val="133502016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62831104"/>
+        <c:axId val="133605888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15432,10 +15470,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62723136"/>
+        <c:crossAx val="133502016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15443,7 +15481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62723136"/>
+        <c:axId val="133502016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15540,10 +15578,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62831104"/>
+        <c:crossAx val="133605888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15582,7 +15620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15612,7 +15650,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15624,9 +15662,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15764,7 +15802,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15880,7 +15918,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -15996,7 +16034,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -16112,7 +16150,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -16228,7 +16266,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9A97-40B4-A155-A243BB9F39F7}"/>
             </c:ext>
@@ -16244,11 +16282,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="122740736"/>
-        <c:axId val="61873472"/>
+        <c:axId val="162455552"/>
+        <c:axId val="62463296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122740736"/>
+        <c:axId val="162455552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16258,7 +16296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61873472"/>
+        <c:crossAx val="62463296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16266,7 +16304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61873472"/>
+        <c:axId val="62463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16277,7 +16315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122740736"/>
+        <c:crossAx val="162455552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -16865,7 +16903,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16903,7 +16941,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16941,7 +16979,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16979,7 +17017,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17017,7 +17055,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17055,7 +17093,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17093,7 +17131,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BAA7E32-E03E-48BC-8AEC-B0697D1A09D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17129,7 +17167,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17172,7 +17210,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17208,7 +17246,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17249,7 +17287,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17287,7 +17325,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17325,7 +17363,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17368,7 +17406,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17406,7 +17444,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17444,7 +17482,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17487,7 +17525,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17525,7 +17563,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17563,7 +17601,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18418,7 +18456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18451,26 +18489,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18503,23 +18524,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18702,19 +18706,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18740,7 +18744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18766,7 +18770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -18820,12 +18824,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -18842,7 +18846,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="177.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="195.75" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
@@ -18859,7 +18863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="88.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="88.9" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>104</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="111" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>117</v>
       </c>
@@ -18914,19 +18918,19 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -18961,7 +18965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19000,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19041,7 +19045,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19081,7 +19085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19121,7 +19125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -19161,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -19200,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -19241,7 +19245,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -19280,7 +19284,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -19321,7 +19325,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -19425,7 +19429,7 @@
         <v>107500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19446,19 +19450,19 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -19493,7 +19497,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -19532,7 +19536,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -19572,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -19612,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -19651,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -19691,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -19731,7 +19735,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -19773,7 +19777,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -19813,7 +19817,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -19852,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -19870,7 +19874,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -19955,7 +19959,7 @@
         <v>163650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19976,19 +19980,19 @@
       <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -20023,7 +20027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -20062,7 +20066,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -20101,7 +20105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -20180,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -20220,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -20259,7 +20263,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -20300,7 +20304,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -20339,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -20357,7 +20361,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -20445,7 +20449,7 @@
         <v>96500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -20466,19 +20470,19 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -20513,7 +20517,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -20552,7 +20556,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -20591,7 +20595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -20670,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -20710,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -20749,7 +20753,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -20792,7 +20796,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -20831,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -20849,7 +20853,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -20937,7 +20941,7 @@
         <v>221850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -20958,20 +20962,20 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="19"/>
-    <col min="10" max="10" width="22.33203125" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="22.28515625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -21006,7 +21010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -21045,7 +21049,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -21085,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -21125,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -21164,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -21204,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -21244,7 +21248,7 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -21286,7 +21290,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -21326,7 +21330,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -21365,7 +21369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -21382,7 +21386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -21466,7 +21470,7 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -21487,21 +21491,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="19"/>
-    <col min="9" max="9" width="20.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="20.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -21536,7 +21540,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -21575,7 +21579,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -21614,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -21654,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -21693,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -21733,7 +21737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -21772,7 +21776,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -21813,7 +21817,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -21852,7 +21856,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -21869,7 +21873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -21956,7 +21960,7 @@
         <v>86850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -21977,23 +21981,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -22028,7 +22032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -22069,7 +22073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -22110,7 +22114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -22151,7 +22155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -22192,7 +22196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -22233,7 +22237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -22274,7 +22278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -22313,7 +22317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -22354,7 +22358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>70</v>
       </c>
@@ -22395,7 +22399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>71</v>
       </c>
@@ -22436,7 +22440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
@@ -22477,7 +22481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -22518,7 +22522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>74</v>
       </c>
@@ -22559,7 +22563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C56" s="22" t="s">
         <v>1</v>
       </c>
@@ -22573,7 +22577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>B3</f>
         <v>146337.9</v>
@@ -22591,7 +22595,7 @@
         <v>158553.60000000001</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C58" s="24">
         <f t="shared" ref="C58:E58" si="6">B4</f>
         <v>146337.9</v>
@@ -22609,7 +22613,7 @@
         <v>63750.8</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="24">
         <f t="shared" ref="C59:E59" si="8">B5</f>
         <v>78872.09</v>
@@ -22627,7 +22631,7 @@
         <v>60860</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="24">
         <f t="shared" ref="C60:E60" si="9">B6</f>
         <v>78872.09</v>
@@ -22645,7 +22649,7 @@
         <v>133338.59999999998</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="24">
         <f t="shared" ref="C61:E61" si="10">B7</f>
         <v>146337.9</v>
@@ -22663,7 +22667,7 @@
         <v>129280.20000000001</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="24">
         <f t="shared" ref="C62:E62" si="11">B8</f>
         <v>146337.9</v>
@@ -22681,7 +22685,7 @@
         <v>195086.4</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="24">
         <f t="shared" ref="C63:E63" si="12">B9</f>
         <v>146337.9</v>
@@ -22699,7 +22703,7 @@
         <v>61989.9</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="24">
         <f t="shared" ref="C64:E64" si="13">B10</f>
         <v>78872.09</v>
@@ -22717,7 +22721,7 @@
         <v>63060</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="24">
         <f t="shared" ref="C65:E65" si="14">B11</f>
         <v>114876.4</v>
@@ -22735,7 +22739,7 @@
         <v>96145</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="24">
         <f t="shared" ref="C66:E66" si="15">B12</f>
         <v>115530.5</v>
@@ -22753,7 +22757,7 @@
         <v>55966.5</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="24">
         <f t="shared" ref="C67:E67" si="16">B13</f>
         <v>115530.5</v>
@@ -22771,7 +22775,7 @@
         <v>168466.5</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="24">
         <f t="shared" ref="C68:E68" si="17">B14</f>
         <v>114876.4</v>
@@ -22789,7 +22793,7 @@
         <v>105356</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="24">
         <f t="shared" ref="C69:E69" si="18">B15</f>
         <v>115530.5</v>
@@ -22828,23 +22832,23 @@
       <selection activeCell="F56" sqref="F56:I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="3" width="45" style="21" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
@@ -22885,7 +22889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
@@ -22934,7 +22938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
@@ -22983,7 +22987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
@@ -23032,7 +23036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>53</v>
       </c>
@@ -23081,7 +23085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -23130,7 +23134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>67</v>
       </c>
@@ -23179,7 +23183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>68</v>
       </c>
@@ -23228,7 +23232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>69</v>
       </c>
@@ -23277,7 +23281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -23326,7 +23330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>71</v>
       </c>
@@ -23375,7 +23379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>72</v>
       </c>
@@ -23424,7 +23428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -23473,7 +23477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
@@ -23522,84 +23526,84 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="23"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="23"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="23"/>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>1</v>
       </c>
@@ -23613,7 +23617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56">
         <f>D2</f>
         <v>108181.99766751831</v>
@@ -23631,7 +23635,7 @@
         <v>382544</v>
       </c>
     </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57" s="24">
         <f t="shared" ref="F57:F120" si="4">D3</f>
         <v>108181.99766751831</v>
@@ -23649,7 +23653,7 @@
         <v>78284</v>
       </c>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58" s="24">
         <f t="shared" si="4"/>
         <v>66893.848581055019</v>
@@ -23667,7 +23671,7 @@
         <v>75260</v>
       </c>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59" s="24">
         <f t="shared" si="4"/>
         <v>66893.848581055019</v>
@@ -23685,7 +23689,7 @@
         <v>229768</v>
       </c>
     </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F60" s="24">
         <f t="shared" si="4"/>
         <v>108181.99766751831</v>
@@ -23703,7 +23707,7 @@
         <v>196568</v>
       </c>
     </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61" s="24">
         <f t="shared" si="4"/>
         <v>108181.99766751831</v>
@@ -23721,7 +23725,7 @@
         <v>399960</v>
       </c>
     </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62" s="24">
         <f t="shared" si="4"/>
         <v>108181.99766751831</v>
@@ -23739,7 +23743,7 @@
         <v>76562</v>
       </c>
     </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F63" s="24">
         <f t="shared" si="4"/>
         <v>66893.848581055019</v>
@@ -23757,7 +23761,7 @@
         <v>75260</v>
       </c>
     </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64" s="24">
         <f t="shared" si="4"/>
         <v>88649.250981062796</v>
@@ -23775,7 +23779,7 @@
         <v>381282</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65" s="24">
         <f t="shared" si="4"/>
         <v>89276.478946812786</v>
@@ -23793,7 +23797,7 @@
         <v>78082</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66" s="24">
         <f t="shared" si="4"/>
         <v>89276.478946812786</v>
@@ -23811,7 +23815,7 @@
         <v>213082</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67" s="24">
         <f t="shared" si="4"/>
         <v>88649.250981062796</v>
@@ -23829,7 +23833,7 @@
         <v>219632</v>
       </c>
     </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F68" s="24">
         <f t="shared" si="4"/>
         <v>89276.478946812786</v>
@@ -23847,1027 +23851,1027 @@
         <v>78082</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F69" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F70" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F71" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F72" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F73" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F74" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F75" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F76" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F77" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F78" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F79" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F80" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="24">
         <f t="shared" ref="F121:F184" si="6">D67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F152" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F153" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F154" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F155" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F156" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F157" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F158" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F159" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F160" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F161" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F162" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F163" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F164" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F165" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F167" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F171" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F172" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F173" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F174" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F175" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F176" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F177" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F178" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F179" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F180" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F181" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F182" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F183" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F184" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F185" s="24">
         <f t="shared" ref="F185:F239" si="7">D131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F186" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F187" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F188" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F189" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F190" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F191" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F192" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F193" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F194" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F195" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F196" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F197" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F198" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F199" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F200" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F201" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F202" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F203" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F204" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F205" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F206" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F207" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F208" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F209" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F210" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F211" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F212" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F213" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F214" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F215" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F216" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F217" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F218" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F219" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F220" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F221" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F222" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F223" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F224" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F225" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F226" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F228" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F229" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F230" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F231" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F232" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F233" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F234" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F235" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F236" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F237" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F238" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F239" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -24890,25 +24894,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
@@ -24949,7 +24953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
@@ -24998,7 +25002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
@@ -25047,7 +25051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>52</v>
       </c>
@@ -25096,7 +25100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>53</v>
       </c>
@@ -25145,7 +25149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -25194,7 +25198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
@@ -25243,7 +25247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
@@ -25292,7 +25296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>69</v>
       </c>
@@ -25341,7 +25345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -25390,7 +25394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>71</v>
       </c>
@@ -25439,7 +25443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>72</v>
       </c>
@@ -25488,7 +25492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -25537,7 +25541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
@@ -25586,7 +25590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>1</v>
       </c>
@@ -25600,7 +25604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F46">
         <f>D2</f>
         <v>220258.5472510673</v>
@@ -25618,7 +25622,7 @@
         <v>370153.6</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F47" s="24">
         <f t="shared" ref="F47:F59" si="4">D3</f>
         <v>220258.5472510673</v>
@@ -25636,7 +25640,7 @@
         <v>129194.4</v>
       </c>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F48" s="24">
         <f t="shared" si="4"/>
         <v>136195.87571102803</v>
@@ -25654,7 +25658,7 @@
         <v>133630</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F49" s="24">
         <f t="shared" si="4"/>
         <v>136195.87571102803</v>
@@ -25672,7 +25676,7 @@
         <v>150884</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F50" s="24">
         <f t="shared" si="4"/>
         <v>220258.5472510673</v>
@@ -25690,7 +25694,7 @@
         <v>215594</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F51" s="24">
         <f t="shared" si="4"/>
         <v>220258.5472510673</v>
@@ -25708,7 +25712,7 @@
         <v>465444</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F52" s="24">
         <f t="shared" si="4"/>
         <v>220258.5472510673</v>
@@ -25726,7 +25730,7 @@
         <v>126045.59999999999</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" s="24">
         <f t="shared" si="4"/>
         <v>136195.87571102803</v>
@@ -25744,7 +25748,7 @@
         <v>133630</v>
       </c>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" s="24">
         <f t="shared" si="4"/>
         <v>180489.8749974439</v>
@@ -25762,7 +25766,7 @@
         <v>228761.2</v>
       </c>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" s="24">
         <f t="shared" si="4"/>
         <v>181766.91113571086</v>
@@ -25780,7 +25784,7 @@
         <v>135438.20000000001</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" s="24">
         <f t="shared" si="4"/>
         <v>181766.91113571086</v>
@@ -25798,7 +25802,7 @@
         <v>150438.20000000001</v>
       </c>
     </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57" s="24">
         <f t="shared" si="4"/>
         <v>180489.8749974439</v>
@@ -25816,7 +25820,7 @@
         <v>245231.2</v>
       </c>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58" s="24">
         <f t="shared" si="4"/>
         <v>181766.91113571086</v>
@@ -25834,7 +25838,7 @@
         <v>135438.20000000001</v>
       </c>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -25855,23 +25859,23 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -26550,6 +26554,268 @@
       </c>
       <c r="M14" s="17">
         <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="37">
+        <f>D2</f>
+        <v>83454.683914942696</v>
+      </c>
+      <c r="E48" s="37">
+        <f t="shared" ref="E48:F48" si="3">E2</f>
+        <v>5652.0684567357575</v>
+      </c>
+      <c r="F48" s="37">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="G48">
+        <f>G2+H2</f>
+        <v>286120</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="37">
+        <f t="shared" ref="D49:F49" si="4">D3</f>
+        <v>83454.683914942696</v>
+      </c>
+      <c r="E49" s="37">
+        <f t="shared" si="4"/>
+        <v>3844.3769660028456</v>
+      </c>
+      <c r="F49" s="37">
+        <f t="shared" si="4"/>
+        <v>2970</v>
+      </c>
+      <c r="G49" s="24">
+        <f t="shared" ref="G49:G60" si="5">G3+H3</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="37">
+        <f t="shared" ref="D50:F50" si="6">D4</f>
+        <v>51603.826048242438</v>
+      </c>
+      <c r="E50" s="37">
+        <f t="shared" si="6"/>
+        <v>4383.6369516535042</v>
+      </c>
+      <c r="F50" s="37">
+        <f t="shared" si="6"/>
+        <v>3900</v>
+      </c>
+      <c r="G50" s="24">
+        <f t="shared" si="5"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="37">
+        <f t="shared" ref="D51:F51" si="7">D5</f>
+        <v>51603.826048242438</v>
+      </c>
+      <c r="E51" s="37">
+        <f t="shared" si="7"/>
+        <v>4383.6369516535042</v>
+      </c>
+      <c r="F51" s="37">
+        <f t="shared" si="7"/>
+        <v>3900</v>
+      </c>
+      <c r="G51" s="24">
+        <f t="shared" si="5"/>
+        <v>210130</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="37">
+        <f t="shared" ref="D52:F52" si="8">D6</f>
+        <v>83454.683914942696</v>
+      </c>
+      <c r="E52" s="37">
+        <f t="shared" si="8"/>
+        <v>3844.3769660028456</v>
+      </c>
+      <c r="F52" s="37">
+        <f t="shared" si="8"/>
+        <v>5940</v>
+      </c>
+      <c r="G52" s="24">
+        <f t="shared" si="5"/>
+        <v>211248</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="37">
+        <f t="shared" ref="D53:F53" si="9">D7</f>
+        <v>83454.683914942696</v>
+      </c>
+      <c r="E53" s="37">
+        <f t="shared" si="9"/>
+        <v>5652.0684567357575</v>
+      </c>
+      <c r="F53" s="37">
+        <f t="shared" si="9"/>
+        <v>2700</v>
+      </c>
+      <c r="G53" s="24">
+        <f t="shared" si="5"/>
+        <v>74640</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="37">
+        <f t="shared" ref="D54:F54" si="10">D8</f>
+        <v>83454.683914942696</v>
+      </c>
+      <c r="E54" s="37">
+        <f t="shared" si="10"/>
+        <v>3844.3769660028456</v>
+      </c>
+      <c r="F54" s="37">
+        <f t="shared" si="10"/>
+        <v>5940</v>
+      </c>
+      <c r="G54" s="24">
+        <f t="shared" si="5"/>
+        <v>76275</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="37">
+        <f t="shared" ref="D55:F55" si="11">D9</f>
+        <v>51603.826048242438</v>
+      </c>
+      <c r="E55" s="37">
+        <f t="shared" si="11"/>
+        <v>4383.6369516535042</v>
+      </c>
+      <c r="F55" s="37">
+        <f t="shared" si="11"/>
+        <v>31200</v>
+      </c>
+      <c r="G55" s="24">
+        <f t="shared" si="5"/>
+        <v>76300</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="37">
+        <f t="shared" ref="D56:F56" si="12">D10</f>
+        <v>68386.565042534159</v>
+      </c>
+      <c r="E56" s="37">
+        <f t="shared" si="12"/>
+        <v>3778.2685110852781</v>
+      </c>
+      <c r="F56" s="37">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="G56" s="24">
+        <f t="shared" si="5"/>
+        <v>161650</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="37">
+        <f t="shared" ref="D57:F57" si="13">D11</f>
+        <v>68870.426616112716</v>
+      </c>
+      <c r="E57" s="37">
+        <f t="shared" si="13"/>
+        <v>3663.5010909611156</v>
+      </c>
+      <c r="F57" s="37">
+        <f t="shared" si="13"/>
+        <v>4400</v>
+      </c>
+      <c r="G57" s="24">
+        <f t="shared" si="5"/>
+        <v>92100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="37">
+        <f t="shared" ref="D58:F58" si="14">D12</f>
+        <v>68870.426616112716</v>
+      </c>
+      <c r="E58" s="37">
+        <f t="shared" si="14"/>
+        <v>7526.1810909611158</v>
+      </c>
+      <c r="F58" s="37">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="G58" s="24">
+        <f t="shared" si="5"/>
+        <v>213050</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="37">
+        <f t="shared" ref="D59:F59" si="15">D13</f>
+        <v>68386.565042534159</v>
+      </c>
+      <c r="E59" s="37">
+        <f t="shared" si="15"/>
+        <v>3778.2685110852781</v>
+      </c>
+      <c r="F59" s="37">
+        <f t="shared" si="15"/>
+        <v>8000</v>
+      </c>
+      <c r="G59" s="24">
+        <f t="shared" si="5"/>
+        <v>170800</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="37">
+        <f t="shared" ref="D60:F61" si="16">D14</f>
+        <v>68870.426616112716</v>
+      </c>
+      <c r="E60" s="37">
+        <f t="shared" si="16"/>
+        <v>3663.5010909611156</v>
+      </c>
+      <c r="F60" s="37">
+        <f t="shared" si="16"/>
+        <v>8800</v>
+      </c>
+      <c r="G60" s="24">
+        <f t="shared" si="5"/>
+        <v>78050</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="37">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="37">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26573,7 +26839,7 @@
       <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26595,20 +26861,20 @@
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -26643,7 +26909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -26685,7 +26951,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -26726,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -26766,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -26807,7 +27073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -26849,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -26890,7 +27156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -26933,7 +27199,7 @@
         <v>12440</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -26976,7 +27242,7 @@
         <v>273680</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -27015,7 +27281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -27025,7 +27291,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -27042,7 +27308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -27127,8 +27393,8 @@
         <v>288120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>112</v>
       </c>
@@ -27162,20 +27428,20 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -27210,7 +27476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -27251,7 +27517,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -27291,7 +27557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -27331,7 +27597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -27370,7 +27636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -27411,7 +27677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -27450,7 +27716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -27490,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -27531,7 +27797,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -27571,7 +27837,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -27582,7 +27848,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -27600,7 +27866,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -27688,7 +27954,7 @@
         <v>77970</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27709,18 +27975,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="21" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -27755,7 +28021,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -27794,7 +28060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -27834,7 +28100,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -27873,7 +28139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -27912,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -27952,7 +28218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -27991,7 +28257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -28032,7 +28298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -28071,7 +28337,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -28112,7 +28378,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -28123,7 +28389,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -28141,7 +28407,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -28229,7 +28495,7 @@
         <v>78900</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28250,18 +28516,18 @@
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="28" style="24" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -28296,7 +28562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -28335,7 +28601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -28375,7 +28641,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -28414,7 +28680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -28453,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -28493,7 +28759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -28532,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -28573,7 +28839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -28612,7 +28878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -28655,7 +28921,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -28663,7 +28929,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -28681,7 +28947,7 @@
       </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -28772,19 +29038,19 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J23" s="28"/>
     </row>
   </sheetData>
@@ -28807,18 +29073,18 @@
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -28853,7 +29119,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -28894,7 +29160,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -28934,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -28974,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -29013,7 +29279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -29053,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -29093,7 +29359,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -29133,7 +29399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -29172,7 +29438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -29215,7 +29481,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -29223,7 +29489,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -29240,7 +29506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -29327,7 +29593,7 @@
         <v>217188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29348,19 +29614,19 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -29395,7 +29661,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -29436,7 +29702,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -29477,7 +29743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -29517,7 +29783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -29558,7 +29824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -29600,7 +29866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -29641,7 +29907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -29683,7 +29949,7 @@
         <v>24880</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -29722,7 +29988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -29765,7 +30031,7 @@
         <v>49760</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -29804,7 +30070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
@@ -29812,7 +30078,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -29820,7 +30086,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -29837,7 +30103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -29921,7 +30187,7 @@
         <v>77340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29942,20 +30208,20 @@
       <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -29990,7 +30256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -30032,7 +30298,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -30072,7 +30338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -30112,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -30151,7 +30417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -30192,7 +30458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -30232,7 +30498,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -30272,7 +30538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -30313,7 +30579,7 @@
         <v>48770</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -30353,7 +30619,7 @@
         <v>24385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
@@ -30370,7 +30636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -30457,7 +30723,7 @@
         <v>82215</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
+++ b/tumlknexpectimax/excel_data/component_cost_21062018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19365" windowHeight="9345" tabRatio="961" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="19365" windowHeight="9225" tabRatio="961" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Papers and Reports" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <sheet name="CAPEX_Euros_BSG" sheetId="17" r:id="rId18"/>
     <sheet name="CAPEX_Euros_Phillipson" sheetId="19" r:id="rId19"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId20"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -5526,7 +5523,7 @@
                   <c:v>14071176.600360358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14412477.773234358</c:v>
+                  <c:v>11412477.773234358</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14888967.131107237</c:v>
@@ -5544,7 +5541,7 @@
                   <c:v>8939459.0369963441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14908365.035910908</c:v>
+                  <c:v>11908365.035910908</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12392247.706685591</c:v>
@@ -5642,7 +5639,7 @@
                   <c:v>14709873.149994796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15224353.044047277</c:v>
+                  <c:v>12224353.044047277</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18704572.868059848</c:v>
@@ -5660,7 +5657,7 @@
                   <c:v>8451696.3853536919</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15368507.69109684</c:v>
+                  <c:v>12368507.69109684</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12548241.677680973</c:v>
@@ -5758,7 +5755,7 @@
                   <c:v>19604874.276635427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16398118.731676059</c:v>
+                  <c:v>13398118.731676059</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23453352.46215231</c:v>
@@ -5776,7 +5773,7 @@
                   <c:v>9502699.0018886942</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17703610.307631847</c:v>
+                  <c:v>14703610.307631845</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16879375.974607404</c:v>
@@ -5862,7 +5859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27679597.24157434</c:v>
+                  <c:v>34266024.879250385</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24445057.803101256</c:v>
@@ -5874,10 +5871,10 @@
                   <c:v>32398918.969783094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32640037.803101253</c:v>
+                  <c:v>29640037.803101253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32645717.24157434</c:v>
+                  <c:v>39232144.879250385</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25097617.803101256</c:v>
@@ -5886,19 +5883,19 @@
                   <c:v>22472418.969783098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27100080.481793776</c:v>
+                  <c:v>22173558.448454756</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22927963.137474932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45677568.631447144</c:v>
+                  <c:v>20974612.706450172</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>29651580.481793776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20587017.14778962</c:v>
+                  <c:v>22830794.906450175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5918,11 +5915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="54512640"/>
-        <c:axId val="51439872"/>
+        <c:axId val="53067264"/>
+        <c:axId val="137345216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54512640"/>
+        <c:axId val="53067264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51439872"/>
+        <c:crossAx val="137345216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5940,7 +5937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51439872"/>
+        <c:axId val="137345216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5971,7 +5968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54512640"/>
+        <c:crossAx val="53067264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6021,205 +6018,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost per Home passed(OASE)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$A$3:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CAPEX_Euros_OASE!$J$3:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>8.812684192617283</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.398907187866647</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9567994443490013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6173717451714573</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8506443669156987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.176315447411138</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.557899510104817</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2341956123028899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3485733761776988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1099439799031803</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.189573532848682</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4698569521465323</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7208830947378226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="52484288"/>
-        <c:axId val="52484864"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="52484288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52484864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="52484864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52484288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
@@ -6787,7 +6585,7 @@
                   <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6805,7 +6603,7 @@
                   <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6832,12 +6630,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="97378304"/>
-        <c:axId val="97944704"/>
+        <c:axId val="198568960"/>
+        <c:axId val="203646656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="97378304"/>
+        <c:axId val="198568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6847,7 +6645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97944704"/>
+        <c:crossAx val="203646656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6855,7 +6653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97944704"/>
+        <c:axId val="203646656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,9 +6664,372 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97378304"/>
+        <c:crossAx val="198568960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Total CAPEX</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> in millions of Euros</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Rokkas!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Cost in Euros(Rokkas)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Rokkas!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_Rokkas!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22564752.46215231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10074718.731676059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8126874.2766354261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19604874.276635427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13398118.731676059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23453352.46215231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10397818.731676059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8776874.276635427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15882075.974607404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9502699.0018886942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14703610.307631845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16879375.974607404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10193759.584937021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B930-48EB-B477-A25076BE2822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_OASE!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Cost in Euros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Rokkas!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_OASE!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12893838.242218347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10825341.106567692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7252293.2670270242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14071176.600360358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11412477.773234358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14888967.131107237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11057962.773234358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7658151.6003603581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10751697.706685591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8939459.0369963441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11908365.035910908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12392247.706685591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9833324.0559109077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B930-48EB-B477-A25076BE2822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="198804992"/>
+        <c:axId val="203648960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="198804992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="203648960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="203648960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" vert="horz"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198804992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl/>
@@ -6916,381 +7077,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Total CAPEX</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> in millions of Euros</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Rokkas!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Cost in Euros(Rokkas)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Rokkas!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Rokkas!$J$2:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>22564752.46215231</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10074718.731676059</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8126874.2766354261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19604874.276635427</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16398118.731676059</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23453352.46215231</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10397818.731676059</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8776874.276635427</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15882075.974607404</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9502699.0018886942</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17703610.307631847</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16879375.974607404</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10193759.584937021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B930-48EB-B477-A25076BE2822}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Cost in Euros</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Rokkas!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_OASE!$H$3:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>12893838.242218347</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10825341.106567692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7252293.2670270242</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14071176.600360358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14412477.773234358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14888967.131107237</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11057962.773234358</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7658151.6003603581</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10751697.706685591</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8939459.0369963441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14908365.035910908</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12392247.706685591</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9833324.0559109077</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B930-48EB-B477-A25076BE2822}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="126376448"/>
-        <c:axId val="97947008"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="126376448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97947008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97947008"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="1000000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" vert="horz"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126376448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="10"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>Cost per premise passed in thousands of euros</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7379,7 +7170,7 @@
                   <c:v>13.399544991207318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.207790808335766</c:v>
+                  <c:v>9.1573499635541378</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16.029903945152288</c:v>
@@ -7397,7 +7188,7 @@
                   <c:v>6.4949073897127301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.100068558288459</c:v>
+                  <c:v>10.049627713506831</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11.536720644253574</c:v>
@@ -7495,7 +7286,7 @@
                   <c:v>9.6173717451714573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8506443669156987</c:v>
+                  <c:v>7.8002035221340709</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.176315447411138</c:v>
@@ -7513,7 +7304,7 @@
                   <c:v>6.1099439799031803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.189573532848682</c:v>
+                  <c:v>8.139132688067054</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.4698569521465323</c:v>
@@ -7542,11 +7333,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97379840"/>
-        <c:axId val="97949312"/>
+        <c:axId val="198806016"/>
+        <c:axId val="203651264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97379840"/>
+        <c:axId val="198806016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7574,14 +7365,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97949312"/>
+        <c:crossAx val="203651264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7589,7 +7379,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97949312"/>
+        <c:axId val="203651264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7612,21 +7402,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97379840"/>
+        <c:crossAx val="198806016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7641,7 +7429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -7743,7 +7531,7 @@
                   <c:v>19604874.276635427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16398118.731676059</c:v>
+                  <c:v>13398118.731676059</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23453352.46215231</c:v>
@@ -7761,7 +7549,7 @@
                   <c:v>9502699.0018886942</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17703610.307631847</c:v>
+                  <c:v>14703610.307631845</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16879375.974607404</c:v>
@@ -7859,7 +7647,7 @@
                   <c:v>14071176.600360358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14412477.773234358</c:v>
+                  <c:v>11412477.773234358</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14888967.131107237</c:v>
@@ -7877,7 +7665,7 @@
                   <c:v>8939459.0369963441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14908365.035910908</c:v>
+                  <c:v>11908365.035910908</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12392247.706685591</c:v>
@@ -7963,7 +7751,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27679597.24157434</c:v>
+                  <c:v>34266024.879250385</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24445057.803101256</c:v>
@@ -7975,10 +7763,10 @@
                   <c:v>32398918.969783094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32640037.803101253</c:v>
+                  <c:v>29640037.803101253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32645717.24157434</c:v>
+                  <c:v>39232144.879250385</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25097617.803101256</c:v>
@@ -7987,19 +7775,19 @@
                   <c:v>22472418.969783098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27100080.481793776</c:v>
+                  <c:v>22173558.448454756</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22927963.137474932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45677568.631447144</c:v>
+                  <c:v>20974612.706450172</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>29651580.481793776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20587017.14778962</c:v>
+                  <c:v>22830794.906450175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8019,11 +7807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129061376"/>
-        <c:axId val="97951040"/>
+        <c:axId val="199811584"/>
+        <c:axId val="203874304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129061376"/>
+        <c:axId val="199811584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8033,7 +7821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97951040"/>
+        <c:crossAx val="203874304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8041,7 +7829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97951040"/>
+        <c:axId val="203874304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8054,22 +7842,19 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129061376"/>
+        <c:crossAx val="199811584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8084,7 +7869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -8213,7 +7998,7 @@
                   <c:v>136195.87571102803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180489.8749974439</c:v>
+                  <c:v>81959.434330663411</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>181766.91113571086</c:v>
@@ -8305,7 +8090,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>49326.040143914499</c:v>
+                  <c:v>181054.59289743542</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>123148.20881095782</c:v>
@@ -8320,7 +8105,7 @@
                   <c:v>123148.20881095782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49326.040143914499</c:v>
+                  <c:v>181054.59289743542</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>123148.20881095782</c:v>
@@ -8335,13 +8120,13 @@
                   <c:v>117354.15161378775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>533346.2614932321</c:v>
+                  <c:v>99287.142993292597</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>121030.53463843174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46535.231820081492</c:v>
+                  <c:v>91410.786993292611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8665,7 +8450,7 @@
                   <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150754</c:v>
+                  <c:v>90754</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8683,7 +8468,7 @@
                   <c:v>135000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -8710,12 +8495,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="129062400"/>
-        <c:axId val="97314496"/>
+        <c:axId val="199812608"/>
+        <c:axId val="203876608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="129062400"/>
+        <c:axId val="199812608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8725,7 +8510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97314496"/>
+        <c:crossAx val="203876608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8733,7 +8518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97314496"/>
+        <c:axId val="203876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8744,20 +8529,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129062400"/>
+        <c:crossAx val="199812608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8772,7 +8554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -8872,7 +8654,7 @@
                   <c:v>13.399544991207318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.207790808335766</c:v>
+                  <c:v>9.1573499635541378</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16.029903945152288</c:v>
@@ -8890,7 +8672,7 @@
                   <c:v>6.4949073897127301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.100068558288459</c:v>
+                  <c:v>10.049627713506831</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11.536720644253574</c:v>
@@ -8988,7 +8770,7 @@
                   <c:v>9.6173717451714573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8506443669156987</c:v>
+                  <c:v>7.8002035221340709</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.176315447411138</c:v>
@@ -9006,7 +8788,7 @@
                   <c:v>6.1099439799031803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.189573532848682</c:v>
+                  <c:v>8.139132688067054</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.4698569521465323</c:v>
@@ -9092,7 +8874,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.918458917076304</c:v>
+                  <c:v>23.420152333572815</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.707714990842224</c:v>
@@ -9104,10 +8886,10 @@
                   <c:v>22.144022260804519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.308822228898403</c:v>
+                  <c:v>20.258381384116774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.312704013105282</c:v>
+                  <c:v>26.814397429601794</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17.153726883399123</c:v>
@@ -9116,19 +8898,19 @@
                   <c:v>15.359455245562913</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.522370638913113</c:v>
+                  <c:v>15.155189972288127</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.670810701575377</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.219717470745096</c:v>
+                  <c:v>14.335734198927053</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20.26627057739989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.070820277349203</c:v>
+                  <c:v>15.604398131672594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9151,25 +8933,24 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129063936"/>
-        <c:axId val="97316800"/>
+        <c:axId val="199814656"/>
+        <c:axId val="203878912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129063936"/>
+        <c:axId val="199814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97316800"/>
+        <c:crossAx val="203878912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9177,7 +8958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97316800"/>
+        <c:axId val="203878912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9201,21 +8982,615 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129063936"/>
+        <c:crossAx val="199814656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>CAPEX in millions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of Euros</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_OASE!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Cost in Euros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_OASE!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12893838.242218347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10825341.106567692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7252293.2670270242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14071176.600360358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11412477.773234358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14888967.131107237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11057962.773234358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7658151.6003603581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10751697.706685591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8939459.0369963441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11908365.035910908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12392247.706685591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9833324.0559109077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Cost in Euros(Phillipson)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_Phillipson!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16803572.868059848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8263453.0440472765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6750873.1499947971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14709873.149994796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12224353.044047277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18704572.868059848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8475703.0440472774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7004373.1499947971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11790741.677680973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8451696.3853536919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12368507.69109684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12548241.677680973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7858656.9684020169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84DA-40A5-B657-50F1A006A948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_BSG!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Cost in Euros(BSG)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_BSG!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>34266024.879250385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24445057.803101256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21659918.969783098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32398918.969783094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29640037.803101253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39232144.879250385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25097617.803101256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22472418.969783098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22173558.448454756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22927963.137474932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20974612.706450172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29651580.481793776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22830794.906450175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Rokkas!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Cost in Euros(Rokkas)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_Rokkas!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22564752.46215231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10074718.731676059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8126874.2766354261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19604874.276635427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13398118.731676059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23453352.46215231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10397818.731676059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8776874.276635427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15882075.974607404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9502699.0018886942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14703610.307631845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16879375.974607404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10193759.584937021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="200485376"/>
+        <c:axId val="203881216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="200485376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="203881216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="203881216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1600"/>
+                  <a:t>Millions of Euros (€)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200485376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9255,16 +9630,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>CAPEX in millions</a:t>
+              <a:t>Components Cost</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> of Euros</a:t>
+              <a:t> Phillipson 2013 applied to Munich in millions of Cost Units</a:t>
             </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9272,18 +9647,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$H$2</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Cost in Euros</c:v>
+                  <c:v>Duct Cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9338,68 +9713,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX_Euros_OASE!$H$3:$H$15</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>12893838.242218347</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10825341.106567692</c:v>
+                  <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7252293.2670270242</c:v>
+                  <c:v>51603.826048242438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14071176.600360358</c:v>
+                  <c:v>51603.826048242438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14412477.773234358</c:v>
+                  <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14888967.131107237</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11057962.773234358</c:v>
+                  <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7658151.6003603581</c:v>
+                  <c:v>51603.826048242438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10751697.706685591</c:v>
+                  <c:v>68386.565042534159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8939459.0369963441</c:v>
+                  <c:v>68870.426616112716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14908365.035910908</c:v>
+                  <c:v>68870.426616112716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12392247.706685591</c:v>
+                  <c:v>68386.565042534159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9833324.0559109077</c:v>
+                  <c:v>68870.426616112716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B28-4602-901D-E5BA6EC24506}"/>
+              <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$J$1</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Cost in Euros(Phillipson)</c:v>
+                  <c:v>Fiber Cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9454,55 +9829,55 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$J$2:$J$14</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16803572.868059848</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8263453.0440472765</c:v>
+                  <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6750873.1499947971</c:v>
+                  <c:v>4383.6369516535042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14709873.149994796</c:v>
+                  <c:v>4383.6369516535042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15224353.044047277</c:v>
+                  <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18704572.868059848</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8475703.0440472774</c:v>
+                  <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7004373.1499947971</c:v>
+                  <c:v>4383.6369516535042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11790741.677680973</c:v>
+                  <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8451696.3853536919</c:v>
+                  <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15368507.69109684</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12548241.677680973</c:v>
+                  <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7858656.9684020169</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84DA-40A5-B657-50F1A006A948}"/>
+              <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9511,11 +9886,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAPEX_Euros_BSG!$J$1</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Cost in Euros(BSG)</c:v>
+                  <c:v>Central Office E&amp;I Costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9570,68 +9945,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX_Euros_BSG!$J$2:$J$14</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27679597.24157434</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24445057.803101256</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21659918.969783098</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32398918.969783094</c:v>
+                  <c:v>27300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32640037.803101253</c:v>
+                  <c:v>5940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32645717.24157434</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25097617.803101256</c:v>
+                  <c:v>5940</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22472418.969783098</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27100080.481793776</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22927963.137474932</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45677568.631447144</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29651580.481793776</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20587017.14778962</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9B28-4602-901D-E5BA6EC24506}"/>
+              <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAPEX_Euros_Rokkas!$J$1</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Cost in Euros(Rokkas)</c:v>
+                  <c:v>Remote Node E&amp;I Costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9686,55 +10061,171 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX_Euros_Rokkas!$J$2:$J$14</c:f>
+              <c:f>CAPEX_Euros_Phillipson!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>22564752.46215231</c:v>
+                  <c:v>286120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10074718.731676059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8126874.2766354261</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19604874.276635427</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16398118.731676059</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23453352.46215231</c:v>
+                  <c:v>323440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10397818.731676059</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8776874.276635427</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15882075.974607404</c:v>
+                  <c:v>161650</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9502699.0018886942</c:v>
+                  <c:v>67100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17703610.307631847</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16879375.974607404</c:v>
+                  <c:v>170800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10193759.584937021</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B28-4602-901D-E5BA6EC24506}"/>
+              <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Building E&amp;I Costs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_Phillipson!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9747,11 +10238,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154633728"/>
-        <c:axId val="97319104"/>
+        <c:overlap val="100"/>
+        <c:axId val="200486400"/>
+        <c:axId val="46933120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154633728"/>
+        <c:axId val="200486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9761,7 +10253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97319104"/>
+        <c:crossAx val="46933120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9769,11 +10261,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97319104"/>
+        <c:axId val="46933120"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9785,38 +10275,32 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1600"/>
-                  <a:t>Millions of Euros (€)</a:t>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Cost Units</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154633728"/>
+        <c:crossAx val="200486400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="10"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9856,726 +10340,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Components Cost</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Phillipson 2013 applied to Munich in millions of Cost Units</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Duct Cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>46411.622601241266</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83454.683914942696</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51603.826048242438</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51603.826048242438</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83454.683914942696</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46411.622601241266</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83454.683914942696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51603.826048242438</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68386.565042534159</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68870.426616112716</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68870.426616112716</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68386.565042534159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68870.426616112716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F0B-427F-B18E-025EB10A1FBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fiber Cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1539.8347599557078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3844.3769660028456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4383.6369516535042</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4383.6369516535042</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3844.3769660028456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1539.8347599557078</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3844.3769660028456</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4383.6369516535042</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3778.2685110852781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3663.5010909611156</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16649.727205824103</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3778.2685110852781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1452.7127519276221</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5F0B-427F-B18E-025EB10A1FBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Central Office E&amp;I Costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2970</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5940</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5940</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5F0B-427F-B18E-025EB10A1FBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Remote Node E&amp;I Costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>286120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>323440</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>161650</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3050</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>170800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5F0B-427F-B18E-025EB10A1FBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Building E&amp;I Costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$H$2:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>210000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73155</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>210000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5F0B-427F-B18E-025EB10A1FBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="154635264"/>
-        <c:axId val="154329664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="154635264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154329664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="154329664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Cost Units</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154635264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>Cost</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> per HH passed in thousands of Euros</a:t>
+              <a:t> per HH passed in Cost Units</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="de-DE" baseline="0"/>
@@ -10593,7 +10362,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10677,7 +10445,7 @@
                   <c:v>9.6173717451714573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8506443669156987</c:v>
+                  <c:v>7.8002035221340709</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.176315447411138</c:v>
@@ -10695,7 +10463,7 @@
                   <c:v>6.1099439799031803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.189573532848682</c:v>
+                  <c:v>8.139132688067054</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.4698569521465323</c:v>
@@ -10788,7 +10556,7 @@
                   <c:v>13.399544991207318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.207790808335766</c:v>
+                  <c:v>9.1573499635541378</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16.029903945152288</c:v>
@@ -10806,7 +10574,7 @@
                   <c:v>6.4949073897127301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.100068558288459</c:v>
+                  <c:v>10.049627713506831</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11.536720644253574</c:v>
@@ -10887,7 +10655,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.918458917076304</c:v>
+                  <c:v>23.420152333572815</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.707714990842224</c:v>
@@ -10899,10 +10667,10 @@
                   <c:v>22.144022260804519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.308822228898403</c:v>
+                  <c:v>20.258381384116774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.312704013105282</c:v>
+                  <c:v>26.814397429601794</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17.153726883399123</c:v>
@@ -10911,19 +10679,19 @@
                   <c:v>15.359455245562913</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.522370638913113</c:v>
+                  <c:v>15.155189972288127</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.670810701575377</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.219717470745096</c:v>
+                  <c:v>14.335734198927053</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20.26627057739989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.070820277349203</c:v>
+                  <c:v>15.604398131672594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11010,7 +10778,7 @@
                   <c:v>10.053908242768639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.405545105630017</c:v>
+                  <c:v>8.3551042608483872</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.784206730954718</c:v>
@@ -11028,7 +10796,7 @@
                   <c:v>5.7765678254074855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.504071964388517</c:v>
+                  <c:v>8.4536311196068894</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.5764757553694029</c:v>
@@ -11057,25 +10825,24 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157536768"/>
-        <c:axId val="154332544"/>
+        <c:axId val="200713728"/>
+        <c:axId val="46936000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157536768"/>
+        <c:axId val="200713728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154332544"/>
+        <c:crossAx val="46936000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11083,7 +10850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154332544"/>
+        <c:axId val="46936000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11106,21 +10873,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157536768"/>
+        <c:crossAx val="200713728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11734,7 +11499,7 @@
                   <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -11752,7 +11517,7 @@
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -11779,11 +11544,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="156905984"/>
-        <c:axId val="51442176"/>
+        <c:axId val="126319104"/>
+        <c:axId val="174825472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156905984"/>
+        <c:axId val="126319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11793,7 +11558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51442176"/>
+        <c:crossAx val="174825472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11801,7 +11566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51442176"/>
+        <c:axId val="174825472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11830,7 +11595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156905984"/>
+        <c:crossAx val="126319104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11856,624 +11621,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Cost</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> per HH passed in thousands of Euros</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="de-DE" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>Munich Residential</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Rokkas!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost per Home passed(Rokkas)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Rokkas!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>15.422563366927967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8858715957050496</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5545583190728083</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.399544991207318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.207790808335766</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.029903945152288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1067040746880306</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9988205021088277</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.855085759420001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4949073897127301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.100068558288459</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.536720644253574</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9672336716130276</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C44D-4702-8FC1-2740B63097ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_OASE!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost per Home passed(OASE)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_OASE!$J$3:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>8.812684192617283</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.398907187866647</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9567994443490013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6173717451714573</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8506443669156987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.176315447411138</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.557899510104817</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2341956123028899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3485733761776988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1099439799031803</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.189573532848682</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4698569521465323</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7208830947378226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C44D-4702-8FC1-2740B63097ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_BSG!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost per Home passed(BSG)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_BSG!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>18.918458917076304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.707714990842224</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.804127516767888</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.144022260804519</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.308822228898403</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.312704013105282</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.153726883399123</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.359455245562913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.522370638913113</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.670810701575377</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.219717470745096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.26627057739989</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.070820277349203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C44D-4702-8FC1-2740B63097ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost per Home passed(Phillipson)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTCab_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_WRWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTCab_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_WRWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CAPEX_Euros_Phillipson!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>11.484910715644761</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6479072134832045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6140886815629809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.053908242768639</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.405545105630017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.784206730954718</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7929759032515049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7873509329470281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0587394420620413</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7765678254074855</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.504071964388517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.5764757553694029</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.3712370777130864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB9D-43BE-841C-7F46FEAD708A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines/>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="156907520"/>
-        <c:axId val="51445056"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="156907520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51445056"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51445056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cost per HH passed in Euros</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156907520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -13072,7 +12219,7 @@
                   <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122778.6</c:v>
+                  <c:v>62778.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -13090,7 +12237,7 @@
                   <c:v>55500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -13117,11 +12264,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49487872"/>
-        <c:axId val="83854464"/>
+        <c:axId val="134365184"/>
+        <c:axId val="104210432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49487872"/>
+        <c:axId val="134365184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13131,7 +12278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83854464"/>
+        <c:crossAx val="104210432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13139,7 +12286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83854464"/>
+        <c:axId val="104210432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13150,7 +12297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49487872"/>
+        <c:crossAx val="134365184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13175,7 +12322,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -13764,7 +12911,7 @@
                   <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -13782,7 +12929,7 @@
                   <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -13809,11 +12956,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49489408"/>
-        <c:axId val="83856768"/>
+        <c:axId val="134366720"/>
+        <c:axId val="174829504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49489408"/>
+        <c:axId val="134366720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13823,7 +12970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83856768"/>
+        <c:crossAx val="174829504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13831,7 +12978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83856768"/>
+        <c:axId val="174829504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13842,7 +12989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49489408"/>
+        <c:crossAx val="134366720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13867,7 +13014,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -14004,7 +13151,7 @@
                   <c:v>136195.87571102803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180489.8749974439</c:v>
+                  <c:v>81959.434330663411</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>181766.91113571086</c:v>
@@ -14096,7 +13243,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>49326.040143914499</c:v>
+                  <c:v>181054.59289743542</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>123148.20881095782</c:v>
@@ -14111,7 +13258,7 @@
                   <c:v>123148.20881095782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49326.040143914499</c:v>
+                  <c:v>181054.59289743542</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>123148.20881095782</c:v>
@@ -14126,13 +13273,13 @@
                   <c:v>117354.15161378775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>533346.2614932321</c:v>
+                  <c:v>99287.142993292597</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>121030.53463843174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46535.231820081492</c:v>
+                  <c:v>91410.786993292611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14456,7 +13603,7 @@
                   <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150754</c:v>
+                  <c:v>90754</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -14474,7 +13621,7 @@
                   <c:v>135000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -14501,11 +13648,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49490944"/>
-        <c:axId val="83859072"/>
+        <c:axId val="134368768"/>
+        <c:axId val="174831808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49490944"/>
+        <c:axId val="134368768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14515,7 +13662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83859072"/>
+        <c:crossAx val="174831808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14523,7 +13670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83859072"/>
+        <c:axId val="174831808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14534,7 +13681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49490944"/>
+        <c:crossAx val="134368768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -14559,7 +13706,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -14620,11 +13767,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="52322304"/>
-        <c:axId val="49602560"/>
+        <c:axId val="167007232"/>
+        <c:axId val="200032832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52322304"/>
+        <c:axId val="167007232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14666,7 +13813,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49602560"/>
+        <c:crossAx val="200032832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14674,7 +13821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49602560"/>
+        <c:axId val="200032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14725,7 +13872,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52322304"/>
+        <c:crossAx val="167007232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14774,6 +13921,591 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Cost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> per HH passed in Cost Units</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="de-DE" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Munich Residential</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OASE</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_OASE!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.812684192617283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.398907187866647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9567994443490013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6173717451714573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8002035221340709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.176315447411138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.557899510104817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2341956123028899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3485733761776988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1099439799031803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.139132688067054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4698569521465323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7208830947378226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-582B-4785-AF4D-5C7C7FE221A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rokkas</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_Rokkas!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15.422563366927967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8858715957050496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5545583190728083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.399544991207318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1573499635541378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.029903945152288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1067040746880306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9988205021088277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.855085759420001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4949073897127301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.049627713506831</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.536720644253574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9672336716130276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-582B-4785-AF4D-5C7C7FE221A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>BSG</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_BSG!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>23.420152333572815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.707714990842224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.804127516767888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.144022260804519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.258381384116774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.814397429601794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.153726883399123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.359455245562913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.155189972288127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.670810701575377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.335734198927053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.26627057739989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.604398131672594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-582B-4785-AF4D-5C7C7FE221A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Phillipson</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CAPEX_Euros_Phillipson!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CAPEX_Euros_Phillipson!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11.484910715644761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6479072134832045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6140886815629809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.053908242768639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3551042608483872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.784206730954718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7929759032515049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7873509329470281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0587394420620413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7765678254074855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4536311196068894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5764757553694029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3712370777130864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-582B-4785-AF4D-5C7C7FE221A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="167007744"/>
+        <c:axId val="200035136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167007744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200035136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200035136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost per HH passed in Cost Units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167007744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -14788,932 +14520,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]OPEX!$D$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTC_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_DWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTC_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]OPEX!$E$28:$Q$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>7308</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3074</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5936</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13074</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7314</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16202.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4240</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8480</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20377.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8480</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B4F1-49F6-83ED-2665C470D7F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]OPEX!$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTC_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_DWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTC_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]OPEX!$E$29:$Q$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3900.4488391680002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15518.532579840001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14871.900355200003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3279.3529536000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2489.7663590400002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11115.468565056002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15946.915080960001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14972.561164800003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7232.9508432000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15199.111584</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>378.22176000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9256.7074175999987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15372.01296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B4F1-49F6-83ED-2665C470D7F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]OPEX!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fault Maintenance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTC_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_DWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTC_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]OPEX!$E$30:$Q$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>6008.5530527698265</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20434.095716784002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20766.619334565716</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2263.0546533337124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2233.9824704598395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21331.706543720222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20730.355811899841</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20767.268450565716</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10209.666758157182</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20585.774219759998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1980.898713392548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12704.99861850918</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20869.841433392543</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B4F1-49F6-83ED-2665C470D7F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]OPEX!$D$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Marketing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTC_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_DWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTC_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]OPEX!$E$31:$Q$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>860.85009459689138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1951.3314148312002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1975.3759844882859</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>470.57038034668568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>532.98744147499201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2276.0587554388112</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2130.6635446429923</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2152.6914807682861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1682.2708800678593</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2001.2442901880002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>541.95602366962737</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2116.9453018054592</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2236.0927196696271</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B4F1-49F6-83ED-2665C470D7F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]OPEX!$D$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]OPEX!$E$27:$Q$27</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>FTTC_GPON_25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FTTB_XGPON_50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FTTB_DWDM_50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTTH_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FTTH_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FTTC_GPON_100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FTTB_XGPON_100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FTTB_DWDM_100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FTTC_Hybridpon_25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FTTB_Hybridpon_50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FTTH_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>FTTC_Hybridpon_100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>FTTB_Hybridpon_100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]OPEX!$E$32:$Q$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1205.1901324356479</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2731.8639807636805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2765.5263782836005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>658.79853248536006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>746.18241806498884</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3186.482257614336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2982.9289625001893</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3013.7680730756006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2355.179232095003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2801.7420062632004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>758.73843313747841</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2963.7234225276429</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3130.5298075374781</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B4F1-49F6-83ED-2665C470D7F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="52323840"/>
-        <c:axId val="49604288"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52323840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Technology</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>CAPEX of different Technologies (Munich OASE)</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="49604288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="49604288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cost Units</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="52323840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -16276,7 +15101,7 @@
                   <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122778.6</c:v>
+                  <c:v>62778.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -16294,7 +15119,7 @@
                   <c:v>55500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -16321,11 +15146,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="84583936"/>
-        <c:axId val="52481984"/>
+        <c:axId val="196475392"/>
+        <c:axId val="200405504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84583936"/>
+        <c:axId val="196475392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16335,7 +15160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52481984"/>
+        <c:crossAx val="200405504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16343,7 +15168,228 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52481984"/>
+        <c:axId val="200405504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Millions of Cost Units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196475392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CAPEX_Euros_OASE!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost per Home passed(OASE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>CAPEX_Euros_OASE!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>FTTCab_GPON_25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTTB_XGPON_50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FTTB_WRWDM_50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTTH_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FTTH_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTTCab_GPON_100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FTTB_XGPON_100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FTTB_WRWDM_100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FTTC_Hybridpon_25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FTTB_Hybridpon_50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FTTH_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FTTC_Hybridpon_100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FTTB_Hybridpon_100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CAPEX_Euros_OASE!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.812684192617283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.398907187866647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9567994443490013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6173717451714573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8002035221340709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.176315447411138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.557899510104817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2341956123028899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3485733761776988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1099439799031803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.139132688067054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4698569521465323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7208830947378226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43E4-40AC-8BD3-6DC3AD95AF40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200407808"/>
+        <c:axId val="200408384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200407808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200408384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16354,15 +15400,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84583936"/>
+        <c:crossAx val="200407808"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -17007,44 +16047,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
@@ -17073,7 +16075,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17111,7 +16113,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17149,7 +16151,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17185,7 +16187,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17195,21 +16197,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>313781</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149677</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>24766</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17223,7 +16225,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17237,15 +16239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1278731</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>1278730</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17664,309 +16666,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="FTTC_GPON_25_PIVOT"/>
-      <sheetName val="FTTC_GPON_25"/>
-      <sheetName val="FTTB_XGPON_50"/>
-      <sheetName val="FTTB_DWDM_50"/>
-      <sheetName val="FTTH_DWDM_100"/>
-      <sheetName val="FTTH_XGPON_100"/>
-      <sheetName val="FTTC_GPON_100"/>
-      <sheetName val="FTTB_XGPON_100"/>
-      <sheetName val="FTTB_DWDM_100"/>
-      <sheetName val="FTTC_Hybridpon_25"/>
-      <sheetName val="FTTB_Hybridpon_50"/>
-      <sheetName val="FTTH_Hybridpon_100"/>
-      <sheetName val="FTTC_Hybridpon_100"/>
-      <sheetName val="FTTB_Hybridpon_100"/>
-      <sheetName val="OPEX"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14">
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>FTTC_GPON_25</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>FTTB_XGPON_50</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>FTTB_DWDM_50</v>
-          </cell>
-          <cell r="H27" t="str">
-            <v>FTTH_DWDM_100</v>
-          </cell>
-          <cell r="I27" t="str">
-            <v>FTTH_XGPON_100</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v>FTTC_GPON_100</v>
-          </cell>
-          <cell r="K27" t="str">
-            <v>FTTB_XGPON_100</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>FTTB_DWDM_100</v>
-          </cell>
-          <cell r="M27" t="str">
-            <v>FTTC_Hybridpon_25</v>
-          </cell>
-          <cell r="N27" t="str">
-            <v>FTTB_Hybridpon_50</v>
-          </cell>
-          <cell r="O27" t="str">
-            <v>FTTH_Hybridpon_100</v>
-          </cell>
-          <cell r="P27" t="str">
-            <v>FTTC_Hybridpon_100</v>
-          </cell>
-          <cell r="Q27" t="str">
-            <v>FTTB_Hybridpon_100</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>Rent</v>
-          </cell>
-          <cell r="E28">
-            <v>7308</v>
-          </cell>
-          <cell r="F28">
-            <v>3074</v>
-          </cell>
-          <cell r="G28">
-            <v>3869</v>
-          </cell>
-          <cell r="H28">
-            <v>3869</v>
-          </cell>
-          <cell r="I28">
-            <v>5936</v>
-          </cell>
-          <cell r="J28">
-            <v>13074</v>
-          </cell>
-          <cell r="K28">
-            <v>5936</v>
-          </cell>
-          <cell r="L28">
-            <v>7314</v>
-          </cell>
-          <cell r="M28">
-            <v>16202.8</v>
-          </cell>
-          <cell r="N28">
-            <v>4240</v>
-          </cell>
-          <cell r="O28">
-            <v>8480</v>
-          </cell>
-          <cell r="P28">
-            <v>20377.2</v>
-          </cell>
-          <cell r="Q28">
-            <v>8480</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>Energy</v>
-          </cell>
-          <cell r="E29">
-            <v>3900.4488391680002</v>
-          </cell>
-          <cell r="F29">
-            <v>15518.532579840001</v>
-          </cell>
-          <cell r="G29">
-            <v>14871.900355200003</v>
-          </cell>
-          <cell r="H29">
-            <v>3279.3529536000001</v>
-          </cell>
-          <cell r="I29">
-            <v>2489.7663590400002</v>
-          </cell>
-          <cell r="J29">
-            <v>11115.468565056002</v>
-          </cell>
-          <cell r="K29">
-            <v>15946.915080960001</v>
-          </cell>
-          <cell r="L29">
-            <v>14972.561164800003</v>
-          </cell>
-          <cell r="M29">
-            <v>7232.9508432000002</v>
-          </cell>
-          <cell r="N29">
-            <v>15199.111584</v>
-          </cell>
-          <cell r="O29">
-            <v>378.22176000000002</v>
-          </cell>
-          <cell r="P29">
-            <v>9256.7074175999987</v>
-          </cell>
-          <cell r="Q29">
-            <v>15372.01296</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>Fault Maintenance</v>
-          </cell>
-          <cell r="E30">
-            <v>6008.5530527698265</v>
-          </cell>
-          <cell r="F30">
-            <v>20434.095716784002</v>
-          </cell>
-          <cell r="G30">
-            <v>20766.619334565716</v>
-          </cell>
-          <cell r="H30">
-            <v>2263.0546533337124</v>
-          </cell>
-          <cell r="I30">
-            <v>2233.9824704598395</v>
-          </cell>
-          <cell r="J30">
-            <v>21331.706543720222</v>
-          </cell>
-          <cell r="K30">
-            <v>20730.355811899841</v>
-          </cell>
-          <cell r="L30">
-            <v>20767.268450565716</v>
-          </cell>
-          <cell r="M30">
-            <v>10209.666758157182</v>
-          </cell>
-          <cell r="N30">
-            <v>20585.774219759998</v>
-          </cell>
-          <cell r="O30">
-            <v>1980.898713392548</v>
-          </cell>
-          <cell r="P30">
-            <v>12704.99861850918</v>
-          </cell>
-          <cell r="Q30">
-            <v>20869.841433392543</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>Marketing</v>
-          </cell>
-          <cell r="E31">
-            <v>860.85009459689138</v>
-          </cell>
-          <cell r="F31">
-            <v>1951.3314148312002</v>
-          </cell>
-          <cell r="G31">
-            <v>1975.3759844882859</v>
-          </cell>
-          <cell r="H31">
-            <v>470.57038034668568</v>
-          </cell>
-          <cell r="I31">
-            <v>532.98744147499201</v>
-          </cell>
-          <cell r="J31">
-            <v>2276.0587554388112</v>
-          </cell>
-          <cell r="K31">
-            <v>2130.6635446429923</v>
-          </cell>
-          <cell r="L31">
-            <v>2152.6914807682861</v>
-          </cell>
-          <cell r="M31">
-            <v>1682.2708800678593</v>
-          </cell>
-          <cell r="N31">
-            <v>2001.2442901880002</v>
-          </cell>
-          <cell r="O31">
-            <v>541.95602366962737</v>
-          </cell>
-          <cell r="P31">
-            <v>2116.9453018054592</v>
-          </cell>
-          <cell r="Q31">
-            <v>2236.0927196696271</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>Operations</v>
-          </cell>
-          <cell r="E32">
-            <v>1205.1901324356479</v>
-          </cell>
-          <cell r="F32">
-            <v>2731.8639807636805</v>
-          </cell>
-          <cell r="G32">
-            <v>2765.5263782836005</v>
-          </cell>
-          <cell r="H32">
-            <v>658.79853248536006</v>
-          </cell>
-          <cell r="I32">
-            <v>746.18241806498884</v>
-          </cell>
-          <cell r="J32">
-            <v>3186.482257614336</v>
-          </cell>
-          <cell r="K32">
-            <v>2982.9289625001893</v>
-          </cell>
-          <cell r="L32">
-            <v>3013.7680730756006</v>
-          </cell>
-          <cell r="M32">
-            <v>2355.179232095003</v>
-          </cell>
-          <cell r="N32">
-            <v>2801.7420062632004</v>
-          </cell>
-          <cell r="O32">
-            <v>758.73843313747841</v>
-          </cell>
-          <cell r="P32">
-            <v>2963.7234225276429</v>
-          </cell>
-          <cell r="Q32">
-            <v>3130.5298075374781</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18962,7 +17661,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19494,7 +18193,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20024,7 +18723,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20514,7 +19213,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20808,39 +19507,39 @@
         <v>74</v>
       </c>
       <c r="C8" s="4">
-        <f>3.3+2</f>
-        <v>5.3</v>
+        <f>3.3</f>
+        <v>3.3</v>
       </c>
       <c r="D8" s="4">
-        <f>5+2</f>
-        <v>7</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
-        <f>3+2</f>
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <f>5</f>
         <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <f>5+2</f>
-        <v>7</v>
       </c>
       <c r="G8" s="4">
         <v>30000</v>
       </c>
       <c r="H8" s="4">
         <f>Table2121314[[#This Row],[Cost per Unit (OASE)]]*Table2121314[[#This Row],[Quantity]]</f>
-        <v>159000</v>
+        <v>99000</v>
       </c>
       <c r="I8" s="12">
         <f>Table2121314[[#This Row],[Cost per Unit (Rokkas)]]*Table2121314[[#This Row],[Quantity]]</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="J8" s="12">
         <f>Table2121314[[#This Row],[Cost per Unit(BSG)]]*Table2121314[[#This Row],[Quantity]]</f>
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="K8" s="35">
         <f>Table2121314[[#This Row],[Cost per Unit(Phillipson)]]*Table2121314[[#This Row],[Quantity]]</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -20914,11 +19613,11 @@
       </c>
       <c r="D15" s="10">
         <f>SUM(H8:H9)</f>
-        <v>168000</v>
+        <v>108000</v>
       </c>
       <c r="E15" s="5">
         <f>SUM(B15:D15)</f>
-        <v>182626.5</v>
+        <v>122626.5</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="10"/>
@@ -20937,11 +19636,11 @@
       </c>
       <c r="D16" s="21">
         <f>SUM(I8:I9)</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="E16" s="5">
         <f>SUM(B16:D16)</f>
-        <v>248146</v>
+        <v>188146</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -20959,11 +19658,11 @@
       </c>
       <c r="D17" s="21">
         <f>SUM(J8:J9)</f>
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="E17" s="5">
         <f>SUM(B17:D17)</f>
-        <v>198438.2</v>
+        <v>138438.20000000001</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -20981,11 +19680,11 @@
       </c>
       <c r="D18" s="24">
         <f>SUM(K8:K9)</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(B18:D18)</f>
-        <v>221850</v>
+        <v>161850</v>
       </c>
     </row>
     <row r="19" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -21006,7 +19705,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21539,7 +20238,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22028,8 +20727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:F69"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22267,22 +20966,22 @@
       </c>
       <c r="F7" s="24">
         <f>'FTTH XGPON 100 Mbps'!D17</f>
-        <v>122778.6</v>
+        <v>62778.6</v>
       </c>
       <c r="G7" s="13">
         <f>SUM(B7:F7)</f>
-        <v>288249.55546468718</v>
+        <v>228249.55546468718</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>14412477.773234358</v>
+        <v>11412477.773234358</v>
       </c>
       <c r="I7">
         <v>29262</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" si="1"/>
-        <v>9.8506443669156987</v>
+        <v>7.8002035221340709</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -22511,22 +21210,22 @@
       </c>
       <c r="F13" s="24">
         <f>FTTH_Hybridpon_100!D15</f>
-        <v>168000</v>
+        <v>108000</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>298167.30071821815</v>
+        <v>238167.30071821815</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>14908365.035910908</v>
+        <v>11908365.035910908</v>
       </c>
       <c r="I13" s="19">
         <v>29262</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="1"/>
-        <v>10.189573532848682</v>
+        <v>8.139132688067054</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -22715,7 +21414,7 @@
       </c>
       <c r="F61" s="21">
         <f t="shared" si="6"/>
-        <v>129280.20000000001</v>
+        <v>69280.2</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
@@ -22823,7 +21522,7 @@
       </c>
       <c r="F67" s="21">
         <f t="shared" si="6"/>
-        <v>168466.5</v>
+        <v>108466.5</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
@@ -23174,22 +21873,22 @@
       </c>
       <c r="H6" s="24">
         <f>'FTTH XGPON 100 Mbps'!D18</f>
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="I6" s="24">
         <f>SUM(Table717[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>327962.37463352119</v>
+        <v>267962.37463352119</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
-        <v>16398118.731676059</v>
+        <v>13398118.731676059</v>
       </c>
       <c r="K6" s="21">
         <v>29262</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="3"/>
-        <v>11.207790808335766</v>
+        <v>9.1573499635541378</v>
       </c>
       <c r="M6" s="21">
         <v>100</v>
@@ -23480,22 +22179,22 @@
       </c>
       <c r="H12" s="24">
         <f>FTTH_Hybridpon_100!D16</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="I12" s="24">
         <f>SUM(Table717[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>354072.20615263691</v>
+        <v>294072.20615263691</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>17703610.307631847</v>
+        <v>14703610.307631845</v>
       </c>
       <c r="K12" s="21">
         <v>29262</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" si="3"/>
-        <v>12.100068558288459</v>
+        <v>10.049627713506831</v>
       </c>
       <c r="M12" s="21">
         <v>100</v>
@@ -23781,7 +22480,7 @@
       </c>
       <c r="I60" s="24">
         <f t="shared" si="6"/>
-        <v>196568</v>
+        <v>136568</v>
       </c>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.25">
@@ -23889,7 +22588,7 @@
       </c>
       <c r="I66" s="24">
         <f t="shared" si="6"/>
-        <v>213082</v>
+        <v>153082</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -25169,8 +23868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25228,7 +23927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
@@ -25236,7 +23935,7 @@
         <v>85947.449261557893</v>
       </c>
       <c r="C2" s="24">
-        <v>256639.12665928461</v>
+        <v>942011.40945595957</v>
       </c>
       <c r="D2" s="24">
         <f>71.26*Table7172[[#This Row],[Duct Length]]/50</f>
@@ -25244,7 +23943,7 @@
       </c>
       <c r="E2" s="24">
         <f>9.61*Table7172[[#This Row],[Fiber Length]]/50</f>
-        <v>49326.040143914499</v>
+        <v>181054.59289743542</v>
       </c>
       <c r="F2" s="24">
         <f>'FTTCab GPON 26 Mbps'!B$20</f>
@@ -25260,24 +23959,24 @@
       </c>
       <c r="I2" s="24">
         <f>SUM(Table7172[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>553591.94483148679</v>
+        <v>685320.49758500769</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" ref="J2:J14" si="0">I2*50</f>
-        <v>27679597.24157434</v>
+        <v>34266024.879250385</v>
       </c>
       <c r="K2" s="24">
         <v>29262</v>
       </c>
       <c r="L2" s="24">
         <f>I2/K2</f>
-        <v>18.918458917076304</v>
+        <v>23.420152333572815</v>
       </c>
       <c r="M2" s="24">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
@@ -25326,7 +24025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>52</v>
       </c>
@@ -25375,7 +24074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>53</v>
       </c>
@@ -25424,7 +24123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -25452,28 +24151,28 @@
       </c>
       <c r="H6" s="24">
         <f>'FTTH XGPON 100 Mbps'!D$19</f>
-        <v>150754</v>
+        <v>90754</v>
       </c>
       <c r="I6" s="24">
         <f>SUM(Table7172[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>652800.75606202509</v>
+        <v>592800.75606202509</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="0"/>
-        <v>32640037.803101253</v>
+        <v>29640037.803101253</v>
       </c>
       <c r="K6" s="24">
         <v>29262</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="1"/>
-        <v>22.308822228898403</v>
+        <v>20.258381384116774</v>
       </c>
       <c r="M6" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>66</v>
       </c>
@@ -25481,7 +24180,7 @@
         <v>85947.449261557893</v>
       </c>
       <c r="C7" s="24">
-        <v>256639.12665928461</v>
+        <v>942011.40945595957</v>
       </c>
       <c r="D7" s="24">
         <f>71.26*Table7172[[#This Row],[Duct Length]]/50</f>
@@ -25489,7 +24188,7 @@
       </c>
       <c r="E7" s="24">
         <f>9.61*Table7172[[#This Row],[Fiber Length]]/50</f>
-        <v>49326.040143914499</v>
+        <v>181054.59289743542</v>
       </c>
       <c r="F7" s="24">
         <f>FTTCab_GPON_100!B$18</f>
@@ -25505,24 +24204,24 @@
       </c>
       <c r="I7" s="24">
         <f>SUM(Table7172[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>652914.34483148681</v>
+        <v>784642.89758500771</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" si="0"/>
-        <v>32645717.24157434</v>
+        <v>39232144.879250385</v>
       </c>
       <c r="K7" s="24">
         <v>29262</v>
       </c>
       <c r="L7" s="24">
         <f t="shared" si="1"/>
-        <v>22.312704013105282</v>
+        <v>26.814397429601794</v>
       </c>
       <c r="M7" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>67</v>
       </c>
@@ -25571,7 +24270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>68</v>
       </c>
@@ -25620,19 +24319,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="16">
-        <v>126641.78711580401</v>
+        <v>57507.321309755403</v>
       </c>
       <c r="C10" s="16">
         <v>629711.41851421306</v>
       </c>
       <c r="D10" s="24">
         <f>71.26*Table7172[[#This Row],[Duct Length]]/50</f>
-        <v>180489.8749974439</v>
+        <v>81959.434330663411</v>
       </c>
       <c r="E10" s="24">
         <f>9.61*Table7172[[#This Row],[Fiber Length]]/50</f>
@@ -25652,24 +24351,24 @@
       </c>
       <c r="I10" s="24">
         <f>SUM(Table7172[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>542001.60963587556</v>
+        <v>443471.16896909516</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="0"/>
-        <v>27100080.481793776</v>
+        <v>22173558.448454756</v>
       </c>
       <c r="K10" s="24">
         <v>29262</v>
       </c>
       <c r="L10" s="24">
         <f t="shared" si="1"/>
-        <v>18.522370638913113</v>
+        <v>15.155189972288127</v>
       </c>
       <c r="M10" s="24">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>70</v>
       </c>
@@ -25718,7 +24417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>71</v>
       </c>
@@ -25726,7 +24425,7 @@
         <v>127537.82706687541</v>
       </c>
       <c r="C12" s="16">
-        <v>2774954.5343040172</v>
+        <v>516582.42972576799</v>
       </c>
       <c r="D12" s="24">
         <f>71.26*Table7172[[#This Row],[Duct Length]]/50</f>
@@ -25734,7 +24433,7 @@
       </c>
       <c r="E12" s="24">
         <f>9.61*Table7172[[#This Row],[Fiber Length]]/50</f>
-        <v>533346.2614932321</v>
+        <v>99287.142993292597</v>
       </c>
       <c r="F12" s="24">
         <f>FTTH_Hybridpon_100!B$17</f>
@@ -25746,28 +24445,28 @@
       </c>
       <c r="H12" s="24">
         <f>FTTH_Hybridpon_100!D$17</f>
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="I12" s="24">
         <f>SUM(Table7172[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>913551.37262894295</v>
+        <v>419492.25412900344</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="0"/>
-        <v>45677568.631447144</v>
+        <v>20974612.706450172</v>
       </c>
       <c r="K12" s="24">
         <v>29262</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" si="1"/>
-        <v>31.219717470745096</v>
+        <v>14.335734198927053</v>
       </c>
       <c r="M12" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>72</v>
       </c>
@@ -25816,7 +24515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
@@ -25824,7 +24523,7 @@
         <v>127537.82706687541</v>
       </c>
       <c r="C14" s="16">
-        <v>242118.791987937</v>
+        <v>475602.42972576804</v>
       </c>
       <c r="D14" s="24">
         <f>71.26*Table7172[[#This Row],[Duct Length]]/50</f>
@@ -25832,7 +24531,7 @@
       </c>
       <c r="E14" s="24">
         <f>9.61*Table7172[[#This Row],[Fiber Length]]/50</f>
-        <v>46535.231820081492</v>
+        <v>91410.786993292611</v>
       </c>
       <c r="F14" s="17">
         <f>FTTB_Hybridpon_100!B$17</f>
@@ -25848,18 +24547,18 @@
       </c>
       <c r="I14" s="24">
         <f>SUM(Table7172[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>411740.34295579238</v>
+        <v>456615.89812900347</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="0"/>
-        <v>20587017.14778962</v>
+        <v>22830794.906450175</v>
       </c>
       <c r="K14" s="24">
         <v>29262</v>
       </c>
       <c r="L14" s="24">
         <f t="shared" si="1"/>
-        <v>14.070820277349203</v>
+        <v>15.604398131672594</v>
       </c>
       <c r="M14" s="17">
         <v>100</v>
@@ -25886,7 +24585,7 @@
       </c>
       <c r="G46" s="24">
         <f t="shared" ref="G46:H58" si="2">E2</f>
-        <v>49326.040143914499</v>
+        <v>181054.59289743542</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" si="2"/>
@@ -25966,7 +24665,7 @@
       </c>
       <c r="I50" s="24">
         <f t="shared" si="4"/>
-        <v>215594</v>
+        <v>155594</v>
       </c>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
@@ -25976,7 +24675,7 @@
       </c>
       <c r="G51" s="24">
         <f t="shared" si="2"/>
-        <v>49326.040143914499</v>
+        <v>181054.59289743542</v>
       </c>
       <c r="H51" s="24">
         <f t="shared" si="2"/>
@@ -26026,7 +24725,7 @@
     <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" s="24">
         <f t="shared" si="3"/>
-        <v>180489.8749974439</v>
+        <v>81959.434330663411</v>
       </c>
       <c r="G54" s="24">
         <f t="shared" si="2"/>
@@ -26066,7 +24765,7 @@
       </c>
       <c r="G56" s="24">
         <f t="shared" si="2"/>
-        <v>533346.2614932321</v>
+        <v>99287.142993292597</v>
       </c>
       <c r="H56" s="24">
         <f t="shared" si="2"/>
@@ -26074,7 +24773,7 @@
       </c>
       <c r="I56" s="24">
         <f t="shared" si="4"/>
-        <v>150438.20000000001</v>
+        <v>90438.2</v>
       </c>
     </row>
     <row r="57" spans="6:9" x14ac:dyDescent="0.25">
@@ -26102,7 +24801,7 @@
       </c>
       <c r="G58" s="24">
         <f t="shared" si="2"/>
-        <v>46535.231820081492</v>
+        <v>91410.786993292611</v>
       </c>
       <c r="H58" s="24">
         <f t="shared" si="2"/>
@@ -26137,7 +24836,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26418,22 +25117,22 @@
       </c>
       <c r="H6" s="24">
         <f>'FTTH XGPON 100 Mbps'!D$20</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="I6" s="24">
         <f>SUM(Table717218[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>304487.06088094553</v>
+        <v>244487.06088094553</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="0"/>
-        <v>15224353.044047277</v>
+        <v>12224353.044047277</v>
       </c>
       <c r="K6" s="24">
         <v>29262</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="1"/>
-        <v>10.405545105630017</v>
+        <v>8.3551042608483872</v>
       </c>
       <c r="M6" s="24">
         <v>100</v>
@@ -26712,22 +25411,22 @@
       </c>
       <c r="H12" s="24">
         <f>FTTH_Hybridpon_100!D$18</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="I12" s="24">
         <f>SUM(Table717218[[#This Row],[Duct Cost]:[Building E&amp;I Costs]])</f>
-        <v>307370.15382193681</v>
+        <v>247370.15382193681</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="0"/>
-        <v>15368507.69109684</v>
+        <v>12368507.69109684</v>
       </c>
       <c r="K12" s="24">
         <v>29262</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" si="1"/>
-        <v>10.504071964388517</v>
+        <v>8.4536311196068894</v>
       </c>
       <c r="M12" s="24">
         <v>100</v>
@@ -26932,7 +25631,7 @@
       </c>
       <c r="G52" s="24">
         <f t="shared" si="4"/>
-        <v>211248</v>
+        <v>151248</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
@@ -27040,7 +25739,7 @@
       </c>
       <c r="G58" s="24">
         <f t="shared" si="4"/>
-        <v>213050</v>
+        <v>153050</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
@@ -27110,8 +25809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27131,9 +25830,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="16" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection activeCell="B47" sqref="B47"/>
+      <selection pane="topRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27700,7 +26400,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28247,7 +26947,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28787,8 +27487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29352,7 +28052,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29728,39 +28428,39 @@
         <v>40</v>
       </c>
       <c r="C10" s="4">
-        <f>1.8+2</f>
-        <v>3.8</v>
+        <f>1.8</f>
+        <v>1.8</v>
       </c>
       <c r="D10" s="4">
-        <f>4+2</f>
-        <v>6</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
-        <f>2.7+2</f>
-        <v>4.7</v>
+        <f>2.7</f>
+        <v>2.7</v>
       </c>
       <c r="F10" s="4">
-        <f>5+2</f>
-        <v>7</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>30000</v>
       </c>
       <c r="H10" s="4">
         <f>Table247[[#This Row],[Cost per Unit (OASE)]]*Table247[[#This Row],[Quantity]]</f>
-        <v>114000</v>
+        <v>54000</v>
       </c>
       <c r="I10" s="12">
         <f>Table247[[#This Row],[Cost per Unit (Rokkas)]]*Table247[[#This Row],[Quantity]]</f>
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="J10" s="12">
         <f>Table247[[#This Row],[Cost per Unit (BSG)]]*Table247[[#This Row],[Quantity]]</f>
-        <v>141000</v>
+        <v>81000</v>
       </c>
       <c r="K10" s="35">
         <f>Table247[[#This Row],[Cost per Unit(Phillipson)]]*Table247[[#This Row],[Quantity]]</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -29802,11 +28502,11 @@
       </c>
       <c r="D17" s="10">
         <f>SUM(H9:H10)</f>
-        <v>122778.6</v>
+        <v>62778.6</v>
       </c>
       <c r="E17" s="5">
         <f>SUM(B17:D17)</f>
-        <v>141898.86666666667</v>
+        <v>81898.866666666669</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -29824,11 +28524,11 @@
       </c>
       <c r="D18">
         <f>SUM(I9:I10)</f>
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(B18:D18)</f>
-        <v>215936</v>
+        <v>155936</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -29846,11 +28546,11 @@
       </c>
       <c r="D19">
         <f>SUM(J9:J10)</f>
-        <v>150754</v>
+        <v>90754</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(B19:D19)</f>
-        <v>309394</v>
+        <v>249394</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -29868,11 +28568,11 @@
       </c>
       <c r="D20" s="24">
         <f>SUM(K9:K10)</f>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="E20" s="5">
         <f>SUM(B20:D20)</f>
-        <v>217188</v>
+        <v>157188</v>
       </c>
     </row>
     <row r="21" spans="1:6" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -29893,7 +28593,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30487,7 +29187,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
